--- a/res/ingresos.xlsx
+++ b/res/ingresos.xlsx
@@ -395,10 +395,10 @@
         <v>30029.77503052707</v>
       </c>
       <c r="D2">
-        <v>34186577869.41852</v>
+        <v>34186351647.19485</v>
       </c>
       <c r="E2">
-        <v>39588126211.89148</v>
+        <v>39587899989.66781</v>
       </c>
     </row>
     <row r="3">
@@ -412,10 +412,10 @@
         <v>59420.82359374188</v>
       </c>
       <c r="D3">
-        <v>37092005884.64671</v>
+        <v>37091099558.79767</v>
       </c>
       <c r="E3">
-        <v>42225991125.97147</v>
+        <v>42225084800.12243</v>
       </c>
     </row>
     <row r="4">
@@ -429,10 +429,10 @@
         <v>81035.6679185431</v>
       </c>
       <c r="D4">
-        <v>40200120133.79861</v>
+        <v>40198076929.43095</v>
       </c>
       <c r="E4">
-        <v>45071561075.80869</v>
+        <v>45069517871.44103</v>
       </c>
     </row>
     <row r="5">
@@ -446,10 +446,10 @@
         <v>108537.4126171111</v>
       </c>
       <c r="D5">
-        <v>43521316680.22787</v>
+        <v>43517672058.49415</v>
       </c>
       <c r="E5">
-        <v>48125466578.7317</v>
+        <v>48121821956.99799</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +463,10 @@
         <v>133530.5230547913</v>
       </c>
       <c r="D6">
-        <v>47064116597.33545</v>
+        <v>47058396774.45271</v>
       </c>
       <c r="E6">
-        <v>51390203575.78941</v>
+        <v>51384483752.90667</v>
       </c>
     </row>
     <row r="7">
@@ -480,10 +480,10 @@
         <v>158724.7144738537</v>
       </c>
       <c r="D7">
-        <v>50843966734.66817</v>
+        <v>50835693891.94943</v>
       </c>
       <c r="E7">
-        <v>54889260074.02674</v>
+        <v>54880987231.308</v>
       </c>
     </row>
     <row r="8">
@@ -497,10 +497,10 @@
         <v>177159.9474320999</v>
       </c>
       <c r="D8">
-        <v>54883323964.8544</v>
+        <v>54872011449.47906</v>
       </c>
       <c r="E8">
-        <v>58667036143.07262</v>
+        <v>58655723627.69728</v>
       </c>
     </row>
     <row r="9">
@@ -514,10 +514,10 @@
         <v>196155.2645391974</v>
       </c>
       <c r="D9">
-        <v>59197139220.56725</v>
+        <v>59182282313.27356</v>
       </c>
       <c r="E9">
-        <v>62729198296.80473</v>
+        <v>62714341389.51103</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>216885.6169868896</v>
       </c>
       <c r="D10">
-        <v>63805869668.36499</v>
+        <v>63786954273.91714</v>
       </c>
       <c r="E10">
-        <v>67090587609.11217</v>
+        <v>67071672214.66432</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>236802.5595579347</v>
       </c>
       <c r="D11">
-        <v>68736813892.50729</v>
+        <v>68713312825.13609</v>
       </c>
       <c r="E11">
-        <v>71784241195.04178</v>
+        <v>71760740127.67058</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>255916.8357745483</v>
       </c>
       <c r="D12">
-        <v>74013301017.54338</v>
+        <v>73984663655.60373</v>
       </c>
       <c r="E12">
-        <v>76832692894.71539</v>
+        <v>76804055532.77574</v>
       </c>
     </row>
     <row r="13">
@@ -582,10 +582,10 @@
         <v>274509.9152339397</v>
       </c>
       <c r="D13">
-        <v>79662412544.5739</v>
+        <v>79628071072.34389</v>
       </c>
       <c r="E13">
-        <v>82261823752.94954</v>
+        <v>82227482280.71953</v>
       </c>
     </row>
     <row r="14">
@@ -599,10 +599,10 @@
         <v>293434.1995728906</v>
       </c>
       <c r="D14">
-        <v>85713950052.2332</v>
+        <v>85673319223.69589</v>
       </c>
       <c r="E14">
-        <v>88100681321.69218</v>
+        <v>88060050493.15488</v>
       </c>
     </row>
     <row r="15">
@@ -616,10 +616,10 @@
         <v>311179.1275048665</v>
       </c>
       <c r="D15">
-        <v>92200246208.935</v>
+        <v>92152720738.72136</v>
       </c>
       <c r="E15">
-        <v>94387367113.79852</v>
+        <v>94339841643.58488</v>
       </c>
     </row>
     <row r="16">
@@ -633,10 +633,10 @@
         <v>327346.3072835326</v>
       </c>
       <c r="D16">
-        <v>99157716975.56995</v>
+        <v>99102671017.52133</v>
       </c>
       <c r="E16">
-        <v>101155341995.0998</v>
+        <v>101100296037.0512</v>
       </c>
     </row>
     <row r="17">
@@ -650,10 +650,10 @@
         <v>341820.0842688636</v>
       </c>
       <c r="D17">
-        <v>106620784926.5535</v>
+        <v>106557572271.5956</v>
       </c>
       <c r="E17">
-        <v>108437159900.4843</v>
+        <v>108373947245.5264</v>
       </c>
     </row>
     <row r="18">
@@ -667,10 +667,10 @@
         <v>354676.2944828495</v>
       </c>
       <c r="D18">
-        <v>114629082847.0364</v>
+        <v>114557034788.3307</v>
       </c>
       <c r="E18">
-        <v>116265561863.3256</v>
+        <v>116193513804.62</v>
       </c>
     </row>
     <row r="19">
@@ -684,10 +684,10 @@
         <v>777700.4245357204</v>
       </c>
       <c r="D19">
-        <v>123231853376.5105</v>
+        <v>123150275650.5164</v>
       </c>
       <c r="E19">
-        <v>124707283308.6447</v>
+        <v>124625705582.6505</v>
       </c>
     </row>
     <row r="20">
@@ -701,10 +701,10 @@
         <v>794656.5893662005</v>
       </c>
       <c r="D20">
-        <v>132476852140.1244</v>
+        <v>132385025103.857</v>
       </c>
       <c r="E20">
-        <v>133801822379.182</v>
+        <v>133709995342.9146</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>1170213.177740761</v>
       </c>
       <c r="D21">
-        <v>142409352606.6384</v>
+        <v>142306527916.3199</v>
       </c>
       <c r="E21">
-        <v>143593895931.6866</v>
+        <v>143491071241.3681</v>
       </c>
     </row>
     <row r="22">
@@ -735,10 +735,10 @@
         <v>1157435.55779788</v>
       </c>
       <c r="D22">
-        <v>153079954056.3827</v>
+        <v>152965350222.193</v>
       </c>
       <c r="E22">
-        <v>154120091220.0196</v>
+        <v>154005487385.8299</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>1901535.170376634</v>
       </c>
       <c r="D23">
-        <v>164549944721.4489</v>
+        <v>164422745440.4424</v>
       </c>
       <c r="E23">
-        <v>165460835234.3937</v>
+        <v>165333635953.3872</v>
       </c>
     </row>
     <row r="24">
@@ -769,10 +769,10 @@
         <v>1870569.036068778</v>
       </c>
       <c r="D24">
-        <v>176886221779.7071</v>
+        <v>176745571723.4986</v>
       </c>
       <c r="E24">
-        <v>177671553691.5535</v>
+        <v>177530903635.3451</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         <v>2067962.916721718</v>
       </c>
       <c r="D25">
-        <v>190159377080.5071</v>
+        <v>190004377046.0385</v>
       </c>
       <c r="E25">
-        <v>190827402872.605</v>
+        <v>190672402838.1364</v>
       </c>
     </row>
     <row r="26">
@@ -803,10 +803,10 @@
         <v>1977869.618796812</v>
       </c>
       <c r="D26">
-        <v>204450074573.2015</v>
+        <v>204279776191.9457</v>
       </c>
       <c r="E26">
-        <v>205011896771.9662</v>
+        <v>204841598390.7104</v>
       </c>
     </row>
     <row r="27">
@@ -820,10 +820,10 @@
         <v>1868707.169711757</v>
       </c>
       <c r="D27">
-        <v>219843403281.7456</v>
+        <v>219656802666.8462</v>
       </c>
       <c r="E27">
-        <v>220314008715.7785</v>
+        <v>220127408100.8791</v>
       </c>
     </row>
     <row r="28">
@@ -837,10 +837,10 @@
         <v>1762935.294314089</v>
       </c>
       <c r="D28">
-        <v>236427713887.2411</v>
+        <v>236223744405.5191</v>
       </c>
       <c r="E28">
-        <v>236816348692.5505</v>
+        <v>236612379210.8285</v>
       </c>
     </row>
     <row r="29">
@@ -854,10 +854,10 @@
         <v>1662172.599959639</v>
       </c>
       <c r="D29">
-        <v>254301323767.1678</v>
+        <v>254078847900.1587</v>
       </c>
       <c r="E29">
-        <v>254621069429.245</v>
+        <v>254398593562.2359</v>
       </c>
     </row>
     <row r="30">
@@ -871,10 +871,10 @@
         <v>1566314.14343332</v>
       </c>
       <c r="D30">
-        <v>273571307129.4309</v>
+        <v>273329107294.8923</v>
       </c>
       <c r="E30">
-        <v>273826081866.8282</v>
+        <v>273583882032.2896</v>
       </c>
     </row>
     <row r="31">
@@ -888,10 +888,10 @@
         <v>1475125.689235759</v>
       </c>
       <c r="D31">
-        <v>294352366976.0505</v>
+        <v>294089135312.17</v>
       </c>
       <c r="E31">
-        <v>294557626306.2495</v>
+        <v>294294394642.3689</v>
       </c>
     </row>
     <row r="32">
@@ -905,10 +905,10 @@
         <v>1388009.985765325</v>
       </c>
       <c r="D32">
-        <v>316765593688.2165</v>
+        <v>316479920861.035</v>
       </c>
       <c r="E32">
-        <v>316927893728.9119</v>
+        <v>316642220901.7303</v>
       </c>
     </row>
     <row r="33">
@@ -922,10 +922,10 @@
         <v>1305299.525976691</v>
       </c>
       <c r="D33">
-        <v>340941991622.431</v>
+        <v>340632354712.6805</v>
       </c>
       <c r="E33">
-        <v>341066360190.105</v>
+        <v>340756723280.3546</v>
       </c>
     </row>
     <row r="34">
@@ -939,10 +939,10 @@
         <v>1226032.775089296</v>
       </c>
       <c r="D34">
-        <v>367022710059.5399</v>
+        <v>366687459673.8379</v>
       </c>
       <c r="E34">
-        <v>367121895623.1157</v>
+        <v>366786645237.4137</v>
       </c>
     </row>
     <row r="35">
@@ -956,10 +956,10 @@
         <v>1150471.79782529</v>
       </c>
       <c r="D35">
-        <v>395158154184.6056</v>
+        <v>394795500939.6024</v>
       </c>
       <c r="E35">
-        <v>395235638093.3051</v>
+        <v>394872984848.3019</v>
       </c>
     </row>
     <row r="36">
@@ -973,10 +973,10 @@
         <v>1077870.996747556</v>
       </c>
       <c r="D36">
-        <v>425508984767.1619</v>
+        <v>425116985186.997</v>
       </c>
       <c r="E36">
-        <v>425568345280.3076</v>
+        <v>425176345700.1426</v>
       </c>
     </row>
     <row r="37">
@@ -990,10 +990,10 @@
         <v>1008449.265989498</v>
       </c>
       <c r="D37">
-        <v>458248669141.308</v>
+        <v>457825211061.2077</v>
       </c>
       <c r="E37">
-        <v>458293223242.9661</v>
+        <v>457869765162.8658</v>
       </c>
     </row>
     <row r="38">
@@ -1007,10 +1007,10 @@
         <v>941136.4390911906</v>
       </c>
       <c r="D38">
-        <v>493564302336.1887</v>
+        <v>493107089999.0521</v>
       </c>
       <c r="E38">
-        <v>493596656430.8273</v>
+        <v>493139444093.6906</v>
       </c>
     </row>
     <row r="39">
@@ -1024,10 +1024,10 @@
         <v>876744.4794188114</v>
       </c>
       <c r="D39">
-        <v>531656540956.6766</v>
+        <v>531163079873.5317</v>
       </c>
       <c r="E39">
-        <v>531679808685.853</v>
+        <v>531186347602.708</v>
       </c>
     </row>
     <row r="40">
@@ -1041,10 +1041,10 @@
         <v>814620.5070959717</v>
       </c>
       <c r="D40">
-        <v>572741356840.3806</v>
+        <v>572208938326.7451</v>
       </c>
       <c r="E40">
-        <v>572757695653.4183</v>
+        <v>572225277139.7828</v>
       </c>
     </row>
     <row r="41">
@@ -1058,10 +1058,10 @@
         <v>754578.7329960398</v>
       </c>
       <c r="D41">
-        <v>617051752819.9088</v>
+        <v>616477438124.5095</v>
       </c>
       <c r="E41">
-        <v>617062153898.0709</v>
+        <v>616487839202.6716</v>
       </c>
     </row>
     <row r="42">
@@ -1075,10 +1075,10 @@
         <v>696471.7700667707</v>
       </c>
       <c r="D42">
-        <v>664838934851.512</v>
+        <v>664219538723.179</v>
       </c>
       <c r="E42">
-        <v>664845755780.3711</v>
+        <v>664226359652.0381</v>
       </c>
     </row>
     <row r="43">
@@ -1092,10 +1092,10 @@
         <v>640183.6761939365</v>
       </c>
       <c r="D43">
-        <v>716373018895.933</v>
+        <v>715705092344.9364</v>
       </c>
       <c r="E43">
-        <v>716377682996.9156</v>
+        <v>715709756445.9191</v>
       </c>
     </row>
     <row r="44">
@@ -1109,10 +1109,10 @@
         <v>585619.1593863287</v>
       </c>
       <c r="D44">
-        <v>771944929286.6555</v>
+        <v>771224741288.8586</v>
       </c>
       <c r="E44">
-        <v>771947370471.0953</v>
+        <v>771227182473.2985</v>
       </c>
     </row>
     <row r="45">
@@ -1126,10 +1126,10 @@
         <v>532724.1075991957</v>
       </c>
       <c r="D45">
-        <v>831868589350.6752</v>
+        <v>831092107181.0975</v>
       </c>
       <c r="E45">
-        <v>831869641669.3232</v>
+        <v>831093159499.7456</v>
       </c>
     </row>
     <row r="46">
@@ -1143,10 +1143,10 @@
         <v>481506.6528359012</v>
       </c>
       <c r="D46">
-        <v>896482384877.9186</v>
+        <v>895645252769.3258</v>
       </c>
       <c r="E46">
-        <v>896482925230.7795</v>
+        <v>895645793122.1868</v>
       </c>
     </row>
     <row r="47">
@@ -1160,10 +1160,10 @@
         <v>432036.900813591</v>
       </c>
       <c r="D47">
-        <v>966150898399.203</v>
+        <v>965248414276.1588</v>
       </c>
       <c r="E47">
-        <v>966151335285.7185</v>
+        <v>965248851162.6743</v>
       </c>
     </row>
     <row r="48">
@@ -1177,10 +1177,10 @@
         <v>384420.9727264584</v>
       </c>
       <c r="D48">
-        <v>1041267007497.896</v>
+        <v>1040294097579.41</v>
       </c>
       <c r="E48">
-        <v>1041267392317.827</v>
+        <v>1040294482399.34</v>
       </c>
     </row>
     <row r="49">
@@ -1194,10 +1194,10 @@
         <v>338797.2915808133</v>
       </c>
       <c r="D49">
-        <v>1122254221226.856</v>
+        <v>1121205412322.98</v>
       </c>
       <c r="E49">
-        <v>1122254560056.91</v>
+        <v>1121205751153.033</v>
       </c>
     </row>
     <row r="50">
@@ -1211,10 +1211,10 @@
         <v>295349.044174656</v>
       </c>
       <c r="D50">
-        <v>1209569092550.562</v>
+        <v>1208438481901.565</v>
       </c>
       <c r="E50">
-        <v>1209569387902.291</v>
+        <v>1208438777253.295</v>
       </c>
     </row>
     <row r="51">
@@ -1228,10 +1228,10 @@
         <v>254314.1719494416</v>
       </c>
       <c r="D51">
-        <v>1303703790004.632</v>
+        <v>1302485012519.984</v>
       </c>
       <c r="E51">
-        <v>1303704044319.023</v>
+        <v>1302485266834.376</v>
       </c>
     </row>
     <row r="52">
@@ -1245,10 +1245,10 @@
         <v>215962.4807283271</v>
       </c>
       <c r="D52">
-        <v>1405188865386.24</v>
+        <v>1403875058138.221</v>
       </c>
       <c r="E52">
-        <v>1405189081348.739</v>
+        <v>1403875274100.72</v>
       </c>
     </row>
     <row r="53">
@@ -1262,10 +1262,10 @@
         <v>180555.8221967474</v>
       </c>
       <c r="D53">
-        <v>1514596242440.603</v>
+        <v>1513180006252.568</v>
       </c>
       <c r="E53">
-        <v>1514596422996.427</v>
+        <v>1513180186808.392</v>
       </c>
     </row>
     <row r="54">
@@ -1279,10 +1279,10 @@
         <v>148326.5449275901</v>
       </c>
       <c r="D54">
-        <v>1632542442837.43</v>
+        <v>1631015800779.135</v>
       </c>
       <c r="E54">
-        <v>1632542591163.975</v>
+        <v>1631015949105.68</v>
       </c>
     </row>
     <row r="55">
@@ -1296,10 +1296,10 @@
         <v>119468.3151546096</v>
       </c>
       <c r="D55">
-        <v>1759692061180.969</v>
+        <v>1758046413755.845</v>
       </c>
       <c r="E55">
-        <v>1759692180649.285</v>
+        <v>1758046533224.16</v>
       </c>
     </row>
     <row r="56">
@@ -1313,10 +1313,10 @@
         <v>94122.76789392329</v>
       </c>
       <c r="D56">
-        <v>1896761508017.901</v>
+        <v>1894987584801.525</v>
       </c>
       <c r="E56">
-        <v>1896761602140.669</v>
+        <v>1894987678924.292</v>
       </c>
     </row>
     <row r="57">
@@ -1330,10 +1330,10 @@
         <v>72348.11293807186</v>
       </c>
       <c r="D57">
-        <v>2044523045560.719</v>
+        <v>2042610853025.434</v>
       </c>
       <c r="E57">
-        <v>2044523117908.832</v>
+        <v>2042610925373.547</v>
       </c>
     </row>
     <row r="58">
@@ -1347,10 +1347,10 @@
         <v>54094.5621443123</v>
       </c>
       <c r="D58">
-        <v>2203809142794.656</v>
+        <v>2201747908034.488</v>
       </c>
       <c r="E58">
-        <v>2203809196889.218</v>
+        <v>2201747962129.05</v>
       </c>
     </row>
     <row r="59">
@@ -1364,10 +1364,10 @@
         <v>39204.67873138021</v>
       </c>
       <c r="D59">
-        <v>2375517172187.585</v>
+        <v>2373295282233.124</v>
       </c>
       <c r="E59">
-        <v>2375517211392.264</v>
+        <v>2373295321437.803</v>
       </c>
     </row>
     <row r="60">
@@ -1381,10 +1381,10 @@
         <v>27427.25559715894</v>
       </c>
       <c r="D60">
-        <v>2560614471707.525</v>
+        <v>2558219408094.364</v>
       </c>
       <c r="E60">
-        <v>2560614499134.78</v>
+        <v>2558219435521.62</v>
       </c>
     </row>
     <row r="61">
@@ -1398,10 +1398,10 @@
         <v>18434.32904878968</v>
       </c>
       <c r="D61">
-        <v>2760143800340.085</v>
+        <v>2757562068568.983</v>
       </c>
       <c r="E61">
-        <v>2760143818774.415</v>
+        <v>2757562087003.312</v>
       </c>
     </row>
     <row r="62">
@@ -1415,10 +1415,10 @@
         <v>11838.01614055261</v>
       </c>
       <c r="D62">
-        <v>2975229218994.667</v>
+        <v>2972446272492.438</v>
       </c>
       <c r="E62">
-        <v>2975229230832.684</v>
+        <v>2972446284330.454</v>
       </c>
     </row>
     <row r="63">
@@ -1432,10 +1432,10 @@
         <v>7215.666265792971</v>
       </c>
       <c r="D63">
-        <v>3207082432068.705</v>
+        <v>3204082590226.6</v>
       </c>
       <c r="E63">
-        <v>3207082439284.371</v>
+        <v>3204082597442.267</v>
       </c>
     </row>
     <row r="64">
@@ -1449,10 +1449,10 @@
         <v>4141.938400971017</v>
       </c>
       <c r="D64">
-        <v>3457009624085.029</v>
+        <v>3453775983915.215</v>
       </c>
       <c r="E64">
-        <v>3457009628226.968</v>
+        <v>3453775988057.153</v>
       </c>
     </row>
     <row r="65">
@@ -1466,10 +1466,10 @@
         <v>2218.521416989784</v>
       </c>
       <c r="D65">
-        <v>3726418827251.41</v>
+        <v>3722933168162.874</v>
       </c>
       <c r="E65">
-        <v>3726418829469.932</v>
+        <v>3722933170381.396</v>
       </c>
     </row>
     <row r="66">
@@ -1483,10 +1483,10 @@
         <v>1097.189924069039</v>
       </c>
       <c r="D66">
-        <v>4016827860880.666</v>
+        <v>4013070542035.264</v>
       </c>
       <c r="E66">
-        <v>4016827861977.855</v>
+        <v>4013070543132.454</v>
       </c>
     </row>
     <row r="67">
@@ -1500,10 +1500,10 @@
         <v>494.809929912586</v>
       </c>
       <c r="D67">
-        <v>4329872888498.409</v>
+        <v>4325822738165.494</v>
       </c>
       <c r="E67">
-        <v>4329872888993.219</v>
+        <v>4325822738660.304</v>
       </c>
     </row>
     <row r="68">
@@ -1517,10 +1517,10 @@
         <v>200.8907912951702</v>
       </c>
       <c r="D68">
-        <v>4667317641710.943</v>
+        <v>4662951837994.58</v>
       </c>
       <c r="E68">
-        <v>4667317641911.834</v>
+        <v>4662951838195.471</v>
       </c>
     </row>
     <row r="69">
@@ -1534,10 +1534,10 @@
         <v>72.16837404115614</v>
       </c>
       <c r="D69">
-        <v>5031063362039.281</v>
+        <v>5026357304303.869</v>
       </c>
       <c r="E69">
-        <v>5031063362111.449</v>
+        <v>5026357304376.037</v>
       </c>
     </row>
     <row r="70">
@@ -1551,10 +1551,10 @@
         <v>22.56303462743703</v>
       </c>
       <c r="D70">
-        <v>5423159515934.369</v>
+        <v>5418086686203.167</v>
       </c>
       <c r="E70">
-        <v>5423159515956.933</v>
+        <v>5418086686225.73</v>
       </c>
     </row>
     <row r="71">
@@ -1568,10 +1568,10 @@
         <v>5.827814038417675</v>
       </c>
       <c r="D71">
-        <v>5845815343530.847</v>
+        <v>5840347157076.43</v>
       </c>
       <c r="E71">
-        <v>5845815343536.675</v>
+        <v>5840347157082.258</v>
       </c>
     </row>
     <row r="72">
@@ -1585,10 +1585,10 @@
         <v>1.308388199554294</v>
       </c>
       <c r="D72">
-        <v>6301412306987.917</v>
+        <v>6295517951273.024</v>
       </c>
       <c r="E72">
-        <v>6301412306989.226</v>
+        <v>6295517951274.333</v>
       </c>
     </row>
     <row r="73">
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>6792517509020.953</v>
+        <v>6786163770082.608</v>
       </c>
       <c r="E73">
-        <v>6792517509020.953</v>
+        <v>6786163770082.608</v>
       </c>
     </row>
     <row r="74">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>7321898157028.542</v>
+        <v>7315049232327.593</v>
       </c>
       <c r="E74">
-        <v>7321898157028.542</v>
+        <v>7315049232327.593</v>
       </c>
     </row>
     <row r="75">
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>7892537154184.911</v>
+        <v>7885154450867.043</v>
       </c>
       <c r="E75">
-        <v>7892537154184.911</v>
+        <v>7885154450867.043</v>
       </c>
     </row>
     <row r="76">
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>8507649905588.522</v>
+        <v>8499691823020.326</v>
       </c>
       <c r="E76">
-        <v>8507649905588.522</v>
+        <v>8499691823020.326</v>
       </c>
     </row>
     <row r="77">
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>9170702434539.93</v>
+        <v>9162124129895.389</v>
       </c>
       <c r="E77">
-        <v>9170702434539.93</v>
+        <v>9162124129895.389</v>
       </c>
     </row>
     <row r="78">
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>9885430911210.209</v>
+        <v>9876184046787.313</v>
       </c>
       <c r="E78">
-        <v>9885430911210.209</v>
+        <v>9876184046787.313</v>
       </c>
     </row>
     <row r="79">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>10655862703708.13</v>
+        <v>10645895174551.91</v>
       </c>
       <c r="E79">
-        <v>10655862703708.13</v>
+        <v>10645895174551.91</v>
       </c>
     </row>
     <row r="80">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>11486339070148.81</v>
+        <v>11475594710446.29</v>
       </c>
       <c r="E80">
-        <v>11486339070148.81</v>
+        <v>11475594710446.29</v>
       </c>
     </row>
     <row r="81">
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>12381539619614.26</v>
+        <v>12369957886206.93</v>
       </c>
       <c r="E81">
-        <v>12381539619614.26</v>
+        <v>12369957886206.93</v>
       </c>
     </row>
     <row r="82">
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>13346508679882.22</v>
+        <v>13334024311112.71</v>
       </c>
       <c r="E82">
-        <v>13346508679882.22</v>
+        <v>13334024311112.71</v>
       </c>
     </row>
     <row r="83">
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>14386683720491.17</v>
+        <v>14373226368461.77</v>
       </c>
       <c r="E83">
-        <v>14386683720491.17</v>
+        <v>14373226368461.77</v>
       </c>
     </row>
     <row r="84">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>15507925991258.38</v>
+        <v>15493419825429.2</v>
       </c>
       <c r="E84">
-        <v>15507925991258.38</v>
+        <v>15493419825429.2</v>
       </c>
     </row>
     <row r="85">
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>16716553548876.09</v>
+        <v>16700916828769.19</v>
       </c>
       <c r="E85">
-        <v>16716553548876.09</v>
+        <v>16700916828769.19</v>
       </c>
     </row>
     <row r="86">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>18019376857686.24</v>
+        <v>18002521472288.01</v>
       </c>
       <c r="E86">
-        <v>18019376857686.24</v>
+        <v>18002521472288.01</v>
       </c>
     </row>
     <row r="87">
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>19423737165238.88</v>
+        <v>19405568136505.19</v>
       </c>
       <c r="E87">
-        <v>19423737165238.88</v>
+        <v>19405568136505.19</v>
       </c>
     </row>
     <row r="88">
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>20937547868865.15</v>
+        <v>20917962816531.66</v>
       </c>
       <c r="E88">
-        <v>20937547868865.15</v>
+        <v>20917962816531.66</v>
       </c>
     </row>
     <row r="89">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>22569339106344.12</v>
+        <v>22548227671025.92</v>
       </c>
       <c r="E89">
-        <v>22569339106344.12</v>
+        <v>22548227671025.92</v>
       </c>
     </row>
     <row r="90">
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>24328305821913.64</v>
+        <v>24305549043243.61</v>
       </c>
       <c r="E90">
-        <v>24328305821913.64</v>
+        <v>24305549043243.61</v>
       </c>
     </row>
     <row r="91">
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>26224359578461.41</v>
+        <v>26199829224762.98</v>
       </c>
       <c r="E91">
-        <v>26224359578461.41</v>
+        <v>26199829224762.98</v>
       </c>
     </row>
     <row r="92">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>28268184407839.14</v>
+        <v>28241742253556.44</v>
       </c>
       <c r="E92">
-        <v>28268184407839.14</v>
+        <v>28241742253556.44</v>
       </c>
     </row>
     <row r="93">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>30471297013994.84</v>
+        <v>30442794060808.52</v>
       </c>
       <c r="E93">
-        <v>30471297013994.84</v>
+        <v>30442794060808.52</v>
       </c>
     </row>
     <row r="94">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>32846111668146.13</v>
+        <v>32815387305386</v>
       </c>
       <c r="E94">
-        <v>32846111668146.13</v>
+        <v>32815387305386</v>
       </c>
     </row>
     <row r="95">
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>35406010161660.94</v>
+        <v>35372891261284.34</v>
       </c>
       <c r="E95">
-        <v>35406010161660.94</v>
+        <v>35372891261284.34</v>
       </c>
     </row>
     <row r="96">
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>38165417210810.88</v>
+        <v>38129717151847.3</v>
       </c>
       <c r="E96">
-        <v>38165417210810.88</v>
+        <v>38129717151847.3</v>
       </c>
     </row>
     <row r="97">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>41139881738285.61</v>
+        <v>41101399355250.23</v>
       </c>
       <c r="E97">
-        <v>41139881738285.61</v>
+        <v>41101399355250.23</v>
       </c>
     </row>
   </sheetData>

--- a/res/ingresos.xlsx
+++ b/res/ingresos.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 7/Pensiones/Proyecto/res/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_A7D35FCD8F79A8D366075C52F37BD272FA4D41AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAB775B-05CC-40C6-944E-AAB4F16368C6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Cuotas</t>
+  </si>
+  <si>
+    <t>Cotizaciones</t>
+  </si>
+  <si>
+    <t>Inversiones</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +89,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,92 +390,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cuotas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizaciones</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Inversiones</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2025</v>
       </c>
       <c r="B2">
-        <v>5401518312.697926</v>
+        <v>5401518312.6979256</v>
       </c>
       <c r="C2">
-        <v>30029.77503052707</v>
+        <v>30029.775030527071</v>
       </c>
       <c r="D2">
-        <v>34186351647.19485</v>
+        <v>34186351647.194851</v>
       </c>
       <c r="E2">
-        <v>39587899989.66781</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>39587899989.667809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>5133925820.501169</v>
+        <v>5133925820.5011692</v>
       </c>
       <c r="C3">
-        <v>59420.82359374188</v>
+        <v>59420.823593741879</v>
       </c>
       <c r="D3">
-        <v>37091099558.79767</v>
+        <v>37091099558.797668</v>
       </c>
       <c r="E3">
-        <v>42225084800.12243</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>42225084800.122429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2027</v>
       </c>
       <c r="B4">
-        <v>4871359906.342157</v>
+        <v>4871359906.3421574</v>
       </c>
       <c r="C4">
-        <v>81035.6679185431</v>
+        <v>81035.667918543098</v>
       </c>
       <c r="D4">
-        <v>40198076929.43095</v>
+        <v>40198076929.430946</v>
       </c>
       <c r="E4">
-        <v>45069517871.44103</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45069517871.441032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2028</v>
       </c>
@@ -446,200 +482,200 @@
         <v>108537.4126171111</v>
       </c>
       <c r="D5">
-        <v>43517672058.49415</v>
+        <v>43517672058.494148</v>
       </c>
       <c r="E5">
-        <v>48121821956.99799</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>48121821956.997993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2029</v>
       </c>
       <c r="B6">
-        <v>4325953447.930901</v>
+        <v>4325953447.9309006</v>
       </c>
       <c r="C6">
-        <v>133530.5230547913</v>
+        <v>133530.52305479129</v>
       </c>
       <c r="D6">
-        <v>47058396774.45271</v>
+        <v>47058396774.452713</v>
       </c>
       <c r="E6">
         <v>51384483752.90667</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2030</v>
       </c>
       <c r="B7">
-        <v>4045134614.644096</v>
+        <v>4045134614.6440959</v>
       </c>
       <c r="C7">
         <v>158724.7144738537</v>
       </c>
       <c r="D7">
-        <v>50835693891.94943</v>
+        <v>50835693891.949432</v>
       </c>
       <c r="E7">
-        <v>54880987231.308</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>54880987231.307999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2031</v>
       </c>
       <c r="B8">
-        <v>3783535018.270787</v>
+        <v>3783535018.2707868</v>
       </c>
       <c r="C8">
         <v>177159.9474320999</v>
       </c>
       <c r="D8">
-        <v>54872011449.47906</v>
+        <v>54872011449.479057</v>
       </c>
       <c r="E8">
-        <v>58655723627.69728</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>58655723627.697281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2032</v>
       </c>
       <c r="B9">
-        <v>3531862920.972935</v>
+        <v>3531862920.9729352</v>
       </c>
       <c r="C9">
-        <v>196155.2645391974</v>
+        <v>196155.26453919741</v>
       </c>
       <c r="D9">
         <v>59182282313.27356</v>
       </c>
       <c r="E9">
-        <v>62714341389.51103</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>62714341389.511032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2033</v>
       </c>
       <c r="B10">
-        <v>3284501055.130194</v>
+        <v>3284501055.1301942</v>
       </c>
       <c r="C10">
         <v>216885.6169868896</v>
       </c>
       <c r="D10">
-        <v>63786954273.91714</v>
+        <v>63786954273.917137</v>
       </c>
       <c r="E10">
-        <v>67071672214.66432</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>67071672214.664322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2034</v>
       </c>
       <c r="B11">
-        <v>3047190499.974928</v>
+        <v>3047190499.9749279</v>
       </c>
       <c r="C11">
         <v>236802.5595579347</v>
       </c>
       <c r="D11">
-        <v>68713312825.13609</v>
+        <v>68713312825.136093</v>
       </c>
       <c r="E11">
-        <v>71760740127.67058</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>71760740127.670578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2035</v>
       </c>
       <c r="B12">
-        <v>2819135960.336233</v>
+        <v>2819135960.3362331</v>
       </c>
       <c r="C12">
-        <v>255916.8357745483</v>
+        <v>255916.83577454829</v>
       </c>
       <c r="D12">
-        <v>73984663655.60373</v>
+        <v>73984663655.603729</v>
       </c>
       <c r="E12">
-        <v>76804055532.77574</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>76804055532.775742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2036</v>
       </c>
       <c r="B13">
-        <v>2599136698.460411</v>
+        <v>2599136698.4604111</v>
       </c>
       <c r="C13">
-        <v>274509.9152339397</v>
+        <v>274509.91523393971</v>
       </c>
       <c r="D13">
-        <v>79628071072.34389</v>
+        <v>79628071072.343887</v>
       </c>
       <c r="E13">
-        <v>82227482280.71953</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>82227482280.719528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2037</v>
       </c>
       <c r="B14">
-        <v>2386437835.25941</v>
+        <v>2386437835.2594099</v>
       </c>
       <c r="C14">
-        <v>293434.1995728906</v>
+        <v>293434.19957289059</v>
       </c>
       <c r="D14">
-        <v>85673319223.69589</v>
+        <v>85673319223.695892</v>
       </c>
       <c r="E14">
-        <v>88060050493.15488</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>88060050493.154877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2038</v>
       </c>
       <c r="B15">
-        <v>2186809725.736016</v>
+        <v>2186809725.7360158</v>
       </c>
       <c r="C15">
-        <v>311179.1275048665</v>
+        <v>311179.12750486651</v>
       </c>
       <c r="D15">
-        <v>92152720738.72136</v>
+        <v>92152720738.721359</v>
       </c>
       <c r="E15">
-        <v>94339841643.58488</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>94339841643.584885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2039</v>
       </c>
       <c r="B16">
-        <v>1997297673.222593</v>
+        <v>1997297673.2225931</v>
       </c>
       <c r="C16">
-        <v>327346.3072835326</v>
+        <v>327346.30728353257</v>
       </c>
       <c r="D16">
-        <v>99102671017.52133</v>
+        <v>99102671017.521332</v>
       </c>
       <c r="E16">
-        <v>101100296037.0512</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>101100296037.05119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2040</v>
       </c>
@@ -656,15 +692,15 @@
         <v>108373947245.5264</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2041</v>
       </c>
       <c r="B18">
-        <v>1636124339.994788</v>
+        <v>1636124339.9947879</v>
       </c>
       <c r="C18">
-        <v>354676.2944828495</v>
+        <v>354676.29448284948</v>
       </c>
       <c r="D18">
         <v>114557034788.3307</v>
@@ -673,15 +709,15 @@
         <v>116193513804.62</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2042</v>
       </c>
       <c r="B19">
-        <v>1474652231.709586</v>
+        <v>1474652231.7095859</v>
       </c>
       <c r="C19">
-        <v>777700.4245357204</v>
+        <v>777700.42453572038</v>
       </c>
       <c r="D19">
         <v>123150275650.5164</v>
@@ -690,7 +726,7 @@
         <v>124625705582.6505</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2043</v>
       </c>
@@ -701,69 +737,69 @@
         <v>794656.5893662005</v>
       </c>
       <c r="D20">
-        <v>132385025103.857</v>
+        <v>132385025103.85699</v>
       </c>
       <c r="E20">
         <v>133709995342.9146</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2044</v>
       </c>
       <c r="B21">
-        <v>1183373111.870453</v>
+        <v>1183373111.8704529</v>
       </c>
       <c r="C21">
-        <v>1170213.177740761</v>
+        <v>1170213.1777407611</v>
       </c>
       <c r="D21">
-        <v>142306527916.3199</v>
+        <v>142306527916.31989</v>
       </c>
       <c r="E21">
         <v>143491071241.3681</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2045</v>
       </c>
       <c r="B22">
-        <v>1038979728.079094</v>
+        <v>1038979728.0790941</v>
       </c>
       <c r="C22">
-        <v>1157435.55779788</v>
+        <v>1157435.5577978799</v>
       </c>
       <c r="D22">
-        <v>152965350222.193</v>
+        <v>152965350222.19299</v>
       </c>
       <c r="E22">
         <v>154005487385.8299</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2046</v>
       </c>
       <c r="B23">
-        <v>908988977.7744099</v>
+        <v>908988977.77440989</v>
       </c>
       <c r="C23">
         <v>1901535.170376634</v>
       </c>
       <c r="D23">
-        <v>164422745440.4424</v>
+        <v>164422745440.44241</v>
       </c>
       <c r="E23">
-        <v>165333635953.3872</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>165333635953.38721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2047</v>
       </c>
       <c r="B24">
-        <v>783461342.8103991</v>
+        <v>783461342.81039906</v>
       </c>
       <c r="C24">
         <v>1870569.036068778</v>
@@ -772,66 +808,66 @@
         <v>176745571723.4986</v>
       </c>
       <c r="E24">
-        <v>177530903635.3451</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>177530903635.34509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2048</v>
       </c>
       <c r="B25">
-        <v>665957829.1811711</v>
+        <v>665957829.18117106</v>
       </c>
       <c r="C25">
-        <v>2067962.916721718</v>
+        <v>2067962.9167217179</v>
       </c>
       <c r="D25">
-        <v>190004377046.0385</v>
+        <v>190004377046.03851</v>
       </c>
       <c r="E25">
-        <v>190672402838.1364</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>190672402838.13641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2049</v>
       </c>
       <c r="B26">
-        <v>559844329.1458529</v>
+        <v>559844329.14585292</v>
       </c>
       <c r="C26">
-        <v>1977869.618796812</v>
+        <v>1977869.6187968119</v>
       </c>
       <c r="D26">
-        <v>204279776191.9457</v>
+        <v>204279776191.94571</v>
       </c>
       <c r="E26">
-        <v>204841598390.7104</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>204841598390.71039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2050</v>
       </c>
       <c r="B27">
-        <v>468736726.8631725</v>
+        <v>468736726.86317247</v>
       </c>
       <c r="C27">
         <v>1868707.169711757</v>
       </c>
       <c r="D27">
-        <v>219656802666.8462</v>
+        <v>219656802666.84619</v>
       </c>
       <c r="E27">
-        <v>220127408100.8791</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>220127408100.87909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2051</v>
       </c>
       <c r="B28">
-        <v>386871870.0150707</v>
+        <v>386871870.01507068</v>
       </c>
       <c r="C28">
         <v>1762935.294314089</v>
@@ -840,10 +876,10 @@
         <v>236223744405.5191</v>
       </c>
       <c r="E28">
-        <v>236612379210.8285</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>236612379210.82849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2052</v>
       </c>
@@ -851,50 +887,50 @@
         <v>318083489.4772864</v>
       </c>
       <c r="C29">
-        <v>1662172.599959639</v>
+        <v>1662172.5999596389</v>
       </c>
       <c r="D29">
-        <v>254078847900.1587</v>
+        <v>254078847900.15869</v>
       </c>
       <c r="E29">
         <v>254398593562.2359</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2053</v>
       </c>
       <c r="B30">
-        <v>253208423.2538435</v>
+        <v>253208423.25384349</v>
       </c>
       <c r="C30">
-        <v>1566314.14343332</v>
+        <v>1566314.1434333201</v>
       </c>
       <c r="D30">
         <v>273329107294.8923</v>
       </c>
       <c r="E30">
-        <v>273583882032.2896</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>273583882032.28961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2054</v>
       </c>
       <c r="B31">
-        <v>203784204.5096711</v>
+        <v>203784204.50967109</v>
       </c>
       <c r="C31">
         <v>1475125.689235759</v>
       </c>
       <c r="D31">
-        <v>294089135312.17</v>
+        <v>294089135312.16998</v>
       </c>
       <c r="E31">
         <v>294294394642.3689</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2055</v>
       </c>
@@ -902,16 +938,16 @@
         <v>160912030.7095848</v>
       </c>
       <c r="C32">
-        <v>1388009.985765325</v>
+        <v>1388009.9857653249</v>
       </c>
       <c r="D32">
-        <v>316479920861.035</v>
+        <v>316479920861.03497</v>
       </c>
       <c r="E32">
-        <v>316642220901.7303</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>316642220901.73029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2056</v>
       </c>
@@ -919,16 +955,16 @@
         <v>123063268.1480501</v>
       </c>
       <c r="C33">
-        <v>1305299.525976691</v>
+        <v>1305299.5259766909</v>
       </c>
       <c r="D33">
-        <v>340632354712.6805</v>
+        <v>340632354712.68048</v>
       </c>
       <c r="E33">
-        <v>340756723280.3546</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>340756723280.35461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2057</v>
       </c>
@@ -939,52 +975,52 @@
         <v>1226032.775089296</v>
       </c>
       <c r="D34">
-        <v>366687459673.8379</v>
+        <v>366687459673.83789</v>
       </c>
       <c r="E34">
         <v>366786645237.4137</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2058</v>
       </c>
       <c r="B35">
-        <v>76333436.90171866</v>
+        <v>76333436.901718661</v>
       </c>
       <c r="C35">
-        <v>1150471.79782529</v>
+        <v>1150471.7978252899</v>
       </c>
       <c r="D35">
-        <v>394795500939.6024</v>
+        <v>394795500939.60242</v>
       </c>
       <c r="E35">
-        <v>394872984848.3019</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>394872984848.30188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2059</v>
       </c>
       <c r="B36">
-        <v>58282642.14888167</v>
+        <v>58282642.148881666</v>
       </c>
       <c r="C36">
-        <v>1077870.996747556</v>
+        <v>1077870.9967475559</v>
       </c>
       <c r="D36">
-        <v>425116985186.997</v>
+        <v>425116985186.99701</v>
       </c>
       <c r="E36">
-        <v>425176345700.1426</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>425176345700.14258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2060</v>
       </c>
       <c r="B37">
-        <v>43545652.39206991</v>
+        <v>43545652.392069913</v>
       </c>
       <c r="C37">
         <v>1008449.265989498</v>
@@ -993,44 +1029,44 @@
         <v>457825211061.2077</v>
       </c>
       <c r="E37">
-        <v>457869765162.8658</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>457869765162.86578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2061</v>
       </c>
       <c r="B38">
-        <v>31412958.19943891</v>
+        <v>31412958.199438911</v>
       </c>
       <c r="C38">
-        <v>941136.4390911906</v>
+        <v>941136.43909119058</v>
       </c>
       <c r="D38">
-        <v>493107089999.0521</v>
+        <v>493107089999.05212</v>
       </c>
       <c r="E38">
-        <v>493139444093.6906</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>493139444093.69061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2062</v>
       </c>
       <c r="B39">
-        <v>22390984.69690678</v>
+        <v>22390984.696906779</v>
       </c>
       <c r="C39">
-        <v>876744.4794188114</v>
+        <v>876744.47941881139</v>
       </c>
       <c r="D39">
-        <v>531163079873.5317</v>
+        <v>531163079873.53168</v>
       </c>
       <c r="E39">
-        <v>531186347602.708</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>531186347602.70801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2063</v>
       </c>
@@ -1038,55 +1074,55 @@
         <v>15524192.53057063</v>
       </c>
       <c r="C40">
-        <v>814620.5070959717</v>
+        <v>814620.50709597173</v>
       </c>
       <c r="D40">
-        <v>572208938326.7451</v>
+        <v>572208938326.74512</v>
       </c>
       <c r="E40">
-        <v>572225277139.7828</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>572225277139.78284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2064</v>
       </c>
       <c r="B41">
-        <v>9646499.429084778</v>
+        <v>9646499.4290847778</v>
       </c>
       <c r="C41">
-        <v>754578.7329960398</v>
+        <v>754578.73299603979</v>
       </c>
       <c r="D41">
-        <v>616477438124.5095</v>
+        <v>616477438124.50952</v>
       </c>
       <c r="E41">
-        <v>616487839202.6716</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>616487839202.67163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2065</v>
       </c>
       <c r="B42">
-        <v>6124457.089076892</v>
+        <v>6124457.0890768915</v>
       </c>
       <c r="C42">
-        <v>696471.7700667707</v>
+        <v>696471.77006677072</v>
       </c>
       <c r="D42">
-        <v>664219538723.179</v>
+        <v>664219538723.17896</v>
       </c>
       <c r="E42">
-        <v>664226359652.0381</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>664226359652.03809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2066</v>
       </c>
       <c r="B43">
-        <v>4023917.306507052</v>
+        <v>4023917.3065070519</v>
       </c>
       <c r="C43">
         <v>640183.6761939365</v>
@@ -1095,10 +1131,10 @@
         <v>715705092344.9364</v>
       </c>
       <c r="E43">
-        <v>715709756445.9191</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>715709756445.91907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2067</v>
       </c>
@@ -1106,50 +1142,50 @@
         <v>1855565.280394064</v>
       </c>
       <c r="C44">
-        <v>585619.1593863287</v>
+        <v>585619.15938632865</v>
       </c>
       <c r="D44">
-        <v>771224741288.8586</v>
+        <v>771224741288.85864</v>
       </c>
       <c r="E44">
-        <v>771227182473.2985</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>771227182473.29846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2068</v>
       </c>
       <c r="B45">
-        <v>519594.5404783812</v>
+        <v>519594.54047838121</v>
       </c>
       <c r="C45">
-        <v>532724.1075991957</v>
+        <v>532724.10759919567</v>
       </c>
       <c r="D45">
-        <v>831092107181.0975</v>
+        <v>831092107181.09753</v>
       </c>
       <c r="E45">
-        <v>831093159499.7456</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>831093159499.74561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2069</v>
       </c>
       <c r="B46">
-        <v>58846.20812068169</v>
+        <v>58846.208120681687</v>
       </c>
       <c r="C46">
-        <v>481506.6528359012</v>
+        <v>481506.65283590119</v>
       </c>
       <c r="D46">
-        <v>895645252769.3258</v>
+        <v>895645252769.32581</v>
       </c>
       <c r="E46">
-        <v>895645793122.1868</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>895645793122.18677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2070</v>
       </c>
@@ -1157,24 +1193,24 @@
         <v>4849.614673085217</v>
       </c>
       <c r="C47">
-        <v>432036.900813591</v>
+        <v>432036.90081359103</v>
       </c>
       <c r="D47">
-        <v>965248414276.1588</v>
+        <v>965248414276.15881</v>
       </c>
       <c r="E47">
-        <v>965248851162.6743</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>965248851162.67432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2071</v>
       </c>
       <c r="B48">
-        <v>398.9580107048465</v>
+        <v>398.95801070484652</v>
       </c>
       <c r="C48">
-        <v>384420.9727264584</v>
+        <v>384420.97272645839</v>
       </c>
       <c r="D48">
         <v>1040294097579.41</v>
@@ -1183,12 +1219,12 @@
         <v>1040294482399.34</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2072</v>
       </c>
       <c r="B49">
-        <v>32.76206619688712</v>
+        <v>32.762066196887119</v>
       </c>
       <c r="C49">
         <v>338797.2915808133</v>
@@ -1200,211 +1236,211 @@
         <v>1121205751153.033</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2073</v>
       </c>
       <c r="B50">
-        <v>2.685407314044569</v>
+        <v>2.6854073140445691</v>
       </c>
       <c r="C50">
-        <v>295349.044174656</v>
+        <v>295349.04417465598</v>
       </c>
       <c r="D50">
-        <v>1208438481901.565</v>
+        <v>1208438481901.5649</v>
       </c>
       <c r="E50">
-        <v>1208438777253.295</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1208438777253.2949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2074</v>
       </c>
       <c r="B51">
-        <v>0.2196931694413964</v>
+        <v>0.21969316944139641</v>
       </c>
       <c r="C51">
         <v>254314.1719494416</v>
       </c>
       <c r="D51">
-        <v>1302485012519.984</v>
+        <v>1302485012519.9839</v>
       </c>
       <c r="E51">
         <v>1302485266834.376</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2075</v>
       </c>
       <c r="B52">
-        <v>0.01793756025292081</v>
+        <v>1.7937560252920811E-2</v>
       </c>
       <c r="C52">
-        <v>215962.4807283271</v>
+        <v>215962.48072832709</v>
       </c>
       <c r="D52">
-        <v>1403875058138.221</v>
+        <v>1403875058138.2209</v>
       </c>
       <c r="E52">
         <v>1403875274100.72</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2076</v>
       </c>
       <c r="B53">
-        <v>0.001461395172644165</v>
+        <v>1.4613951726441649E-3</v>
       </c>
       <c r="C53">
-        <v>180555.8221967474</v>
+        <v>180555.82219674741</v>
       </c>
       <c r="D53">
-        <v>1513180006252.568</v>
+        <v>1513180006252.5681</v>
       </c>
       <c r="E53">
-        <v>1513180186808.392</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1513180186808.3921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2077</v>
       </c>
       <c r="B54">
-        <v>0.0001187868626676545</v>
+        <v>1.187868626676545E-4</v>
       </c>
       <c r="C54">
-        <v>148326.5449275901</v>
+        <v>148326.54492759009</v>
       </c>
       <c r="D54">
         <v>1631015800779.135</v>
       </c>
       <c r="E54">
-        <v>1631015949105.68</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1631015949105.6799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2078</v>
       </c>
       <c r="B55">
-        <v>9.632362045463777E-06</v>
+        <v>9.6323620454637774E-6</v>
       </c>
       <c r="C55">
-        <v>119468.3151546096</v>
+        <v>119468.31515460961</v>
       </c>
       <c r="D55">
         <v>1758046413755.845</v>
       </c>
       <c r="E55">
-        <v>1758046533224.16</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1758046533224.1599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2079</v>
       </c>
       <c r="B56">
-        <v>7.79206567894619E-07</v>
+        <v>7.7920656789461903E-7</v>
       </c>
       <c r="C56">
-        <v>94122.76789392329</v>
+        <v>94122.767893923286</v>
       </c>
       <c r="D56">
-        <v>1894987584801.525</v>
+        <v>1894987584801.5249</v>
       </c>
       <c r="E56">
         <v>1894987678924.292</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2080</v>
       </c>
       <c r="B57">
-        <v>6.288030946083698E-08</v>
+        <v>6.2880309460836984E-8</v>
       </c>
       <c r="C57">
-        <v>72348.11293807186</v>
+        <v>72348.112938071863</v>
       </c>
       <c r="D57">
-        <v>2042610853025.434</v>
+        <v>2042610853025.4341</v>
       </c>
       <c r="E57">
-        <v>2042610925373.547</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2042610925373.5471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2081</v>
       </c>
       <c r="B58">
-        <v>5.061363692879302E-09</v>
+        <v>5.0613636928793016E-9</v>
       </c>
       <c r="C58">
-        <v>54094.5621443123</v>
+        <v>54094.562144312302</v>
       </c>
       <c r="D58">
-        <v>2201747908034.488</v>
+        <v>2201747908034.4878</v>
       </c>
       <c r="E58">
-        <v>2201747962129.05</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2201747962129.0498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2082</v>
       </c>
       <c r="B59">
-        <v>4.06218109662409E-10</v>
+        <v>4.0621810966240901E-10</v>
       </c>
       <c r="C59">
-        <v>39204.67873138021</v>
+        <v>39204.678731380212</v>
       </c>
       <c r="D59">
         <v>2373295282233.124</v>
       </c>
       <c r="E59">
-        <v>2373295321437.803</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2373295321437.8032</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2083</v>
       </c>
       <c r="B60">
-        <v>3.248853590293833E-11</v>
+        <v>3.2488535902938327E-11</v>
       </c>
       <c r="C60">
-        <v>27427.25559715894</v>
+        <v>27427.255597158939</v>
       </c>
       <c r="D60">
-        <v>2558219408094.364</v>
+        <v>2558219408094.3638</v>
       </c>
       <c r="E60">
-        <v>2558219435521.62</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2558219435521.6201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2084</v>
       </c>
       <c r="B61">
-        <v>2.587897235198864E-12</v>
+        <v>2.5878972351988638E-12</v>
       </c>
       <c r="C61">
-        <v>18434.32904878968</v>
+        <v>18434.329048789681</v>
       </c>
       <c r="D61">
-        <v>2757562068568.983</v>
+        <v>2757562068568.9829</v>
       </c>
       <c r="E61">
         <v>2757562087003.312</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2085</v>
       </c>
@@ -1412,16 +1448,16 @@
         <v>2.053892294415358E-13</v>
       </c>
       <c r="C62">
-        <v>11838.01614055261</v>
+        <v>11838.016140552611</v>
       </c>
       <c r="D62">
         <v>2972446272492.438</v>
       </c>
       <c r="E62">
-        <v>2972446284330.454</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2972446284330.4541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2086</v>
       </c>
@@ -1432,13 +1468,13 @@
         <v>7215.666265792971</v>
       </c>
       <c r="D63">
-        <v>3204082590226.6</v>
+        <v>3204082590226.6001</v>
       </c>
       <c r="E63">
-        <v>3204082597442.267</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>3204082597442.2671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2087</v>
       </c>
@@ -1446,16 +1482,16 @@
         <v>1.277951234073808E-15</v>
       </c>
       <c r="C64">
-        <v>4141.938400971017</v>
+        <v>4141.9384009710166</v>
       </c>
       <c r="D64">
-        <v>3453775983915.215</v>
+        <v>3453775983915.2148</v>
       </c>
       <c r="E64">
-        <v>3453775988057.153</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>3453775988057.1528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2088</v>
       </c>
@@ -1472,24 +1508,24 @@
         <v>3722933170381.396</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2089</v>
       </c>
       <c r="B66">
-        <v>7.799640974959817E-18</v>
+        <v>7.7996409749598166E-18</v>
       </c>
       <c r="C66">
-        <v>1097.189924069039</v>
+        <v>1097.1899240690391</v>
       </c>
       <c r="D66">
-        <v>4013070542035.264</v>
+        <v>4013070542035.2642</v>
       </c>
       <c r="E66">
-        <v>4013070543132.454</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>4013070543132.4541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2090</v>
       </c>
@@ -1497,16 +1533,16 @@
         <v>6.041729613336485E-19</v>
       </c>
       <c r="C67">
-        <v>494.809929912586</v>
+        <v>494.80992991258597</v>
       </c>
       <c r="D67">
-        <v>4325822738165.494</v>
+        <v>4325822738165.4941</v>
       </c>
       <c r="E67">
-        <v>4325822738660.304</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>4325822738660.3042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2091</v>
       </c>
@@ -1517,35 +1553,35 @@
         <v>200.8907912951702</v>
       </c>
       <c r="D68">
-        <v>4662951837994.58</v>
+        <v>4662951837994.5801</v>
       </c>
       <c r="E68">
-        <v>4662951838195.471</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>4662951838195.4707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2092</v>
       </c>
       <c r="B69">
-        <v>3.552815458636186E-21</v>
+        <v>3.5528154586361859E-21</v>
       </c>
       <c r="C69">
-        <v>72.16837404115614</v>
+        <v>72.168374041156142</v>
       </c>
       <c r="D69">
-        <v>5026357304303.869</v>
+        <v>5026357304303.8691</v>
       </c>
       <c r="E69">
-        <v>5026357304376.037</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>5026357304376.0371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2093</v>
       </c>
       <c r="B70">
-        <v>2.692828836098504E-22</v>
+        <v>2.6928288360985042E-22</v>
       </c>
       <c r="C70">
         <v>22.56303462743703</v>
@@ -1554,27 +1590,27 @@
         <v>5418086686203.167</v>
       </c>
       <c r="E70">
-        <v>5418086686225.73</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>5418086686225.7305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2094</v>
       </c>
       <c r="B71">
-        <v>2.022786403752251E-23</v>
+        <v>2.0227864037522511E-23</v>
       </c>
       <c r="C71">
-        <v>5.827814038417675</v>
+        <v>5.8278140384176753</v>
       </c>
       <c r="D71">
-        <v>5840347157076.43</v>
+        <v>5840347157076.4297</v>
       </c>
       <c r="E71">
-        <v>5840347157082.258</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>5840347157082.2578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2095</v>
       </c>
@@ -1582,55 +1618,55 @@
         <v>1.504406132374699E-24</v>
       </c>
       <c r="C72">
-        <v>1.308388199554294</v>
+        <v>1.3083881995542941</v>
       </c>
       <c r="D72">
-        <v>6295517951273.024</v>
+        <v>6295517951273.0244</v>
       </c>
       <c r="E72">
         <v>6295517951274.333</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2096</v>
       </c>
       <c r="B73">
-        <v>1.106489260207669E-25</v>
+        <v>1.1064892602076689E-25</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>6786163770082.608</v>
+        <v>6786163770082.6084</v>
       </c>
       <c r="E73">
-        <v>6786163770082.608</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>6786163770082.6084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2097</v>
       </c>
       <c r="B74">
-        <v>8.03698078075836E-27</v>
+        <v>8.0369807807583604E-27</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>7315049232327.593</v>
+        <v>7315049232327.5928</v>
       </c>
       <c r="E74">
-        <v>7315049232327.593</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>7315049232327.5928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2098</v>
       </c>
       <c r="B75">
-        <v>5.755835175387774E-28</v>
+        <v>5.7558351753877736E-28</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1642,63 +1678,63 @@
         <v>7885154450867.043</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2099</v>
       </c>
       <c r="B76">
-        <v>4.057264365097097E-29</v>
+        <v>4.0572643650970972E-29</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>8499691823020.326</v>
+        <v>8499691823020.3262</v>
       </c>
       <c r="E76">
-        <v>8499691823020.326</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>8499691823020.3262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2100</v>
       </c>
       <c r="B77">
-        <v>2.809464232744572E-30</v>
+        <v>2.8094642327445718E-30</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>9162124129895.389</v>
+        <v>9162124129895.3887</v>
       </c>
       <c r="E77">
-        <v>9162124129895.389</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>9162124129895.3887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2101</v>
       </c>
       <c r="B78">
-        <v>1.906746301079343E-31</v>
+        <v>1.9067463010793431E-31</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>9876184046787.313</v>
+        <v>9876184046787.3125</v>
       </c>
       <c r="E78">
-        <v>9876184046787.313</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>9876184046787.3125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2102</v>
       </c>
       <c r="B79">
-        <v>1.264967589289566E-32</v>
+        <v>1.2649675892895661E-32</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1710,29 +1746,29 @@
         <v>10645895174551.91</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2103</v>
       </c>
       <c r="B80">
-        <v>8.178037192671164E-34</v>
+        <v>8.1780371926711644E-34</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>11475594710446.29</v>
+        <v>11475594710446.289</v>
       </c>
       <c r="E80">
-        <v>11475594710446.29</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>11475594710446.289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2104</v>
       </c>
       <c r="B81">
-        <v>5.134800780911601E-35</v>
+        <v>5.1348007809116006E-35</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1744,24 +1780,24 @@
         <v>12369957886206.93</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2105</v>
       </c>
       <c r="B82">
-        <v>3.119233252516236E-36</v>
+        <v>3.1192332525162359E-36</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>13334024311112.71</v>
+        <v>13334024311112.711</v>
       </c>
       <c r="E82">
-        <v>13334024311112.71</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>13334024311112.711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2106</v>
       </c>
@@ -1778,7 +1814,7 @@
         <v>14373226368461.77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2107</v>
       </c>
@@ -1789,69 +1825,69 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>15493419825429.2</v>
+        <v>15493419825429.199</v>
       </c>
       <c r="E84">
-        <v>15493419825429.2</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>15493419825429.199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2108</v>
       </c>
       <c r="B85">
-        <v>5.467863095007939E-40</v>
+        <v>5.4678630950079393E-40</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>16700916828769.19</v>
+        <v>16700916828769.189</v>
       </c>
       <c r="E85">
-        <v>16700916828769.19</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>16700916828769.189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2109</v>
       </c>
       <c r="B86">
-        <v>2.765272391114055E-41</v>
+        <v>2.7652723911140552E-41</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>18002521472288.01</v>
+        <v>18002521472288.012</v>
       </c>
       <c r="E86">
-        <v>18002521472288.01</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>18002521472288.012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2110</v>
       </c>
       <c r="B87">
-        <v>1.314360336818135E-42</v>
+        <v>1.3143603368181349E-42</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>19405568136505.19</v>
+        <v>19405568136505.191</v>
       </c>
       <c r="E87">
-        <v>19405568136505.19</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>19405568136505.191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2111</v>
       </c>
       <c r="B88">
-        <v>5.824013401159864E-44</v>
+        <v>5.8240134011598642E-44</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1863,41 +1899,41 @@
         <v>20917962816531.66</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2112</v>
       </c>
       <c r="B89">
-        <v>2.383992930306017E-45</v>
+        <v>2.3839929303060171E-45</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>22548227671025.92</v>
+        <v>22548227671025.922</v>
       </c>
       <c r="E89">
-        <v>22548227671025.92</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>22548227671025.922</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2113</v>
       </c>
       <c r="B90">
-        <v>8.925352999391401E-47</v>
+        <v>8.9253529993914013E-47</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>24305549043243.61</v>
+        <v>24305549043243.609</v>
       </c>
       <c r="E90">
-        <v>24305549043243.61</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>24305549043243.609</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2114</v>
       </c>
@@ -1914,24 +1950,24 @@
         <v>26199829224762.98</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2115</v>
       </c>
       <c r="B92">
-        <v>9.164878962249794E-50</v>
+        <v>9.1648789622497938E-50</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>28241742253556.44</v>
+        <v>28241742253556.441</v>
       </c>
       <c r="E92">
-        <v>28241742253556.44</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>28241742253556.441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2116</v>
       </c>
@@ -1948,7 +1984,7 @@
         <v>30442794060808.52</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2117</v>
       </c>
@@ -1965,24 +2001,24 @@
         <v>32815387305386</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2118</v>
       </c>
       <c r="B95">
-        <v>9.799586894064638E-55</v>
+        <v>9.7995868940646376E-55</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>35372891261284.34</v>
+        <v>35372891261284.344</v>
       </c>
       <c r="E95">
-        <v>35372891261284.34</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>35372891261284.344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2119</v>
       </c>
@@ -1993,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>38129717151847.3</v>
+        <v>38129717151847.297</v>
       </c>
       <c r="E96">
-        <v>38129717151847.3</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>38129717151847.297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2120</v>
       </c>
@@ -2010,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>41101399355250.23</v>
+        <v>41101399355250.227</v>
       </c>
       <c r="E97">
-        <v>41101399355250.23</v>
+        <v>41101399355250.227</v>
       </c>
     </row>
   </sheetData>

--- a/res/ingresos.xlsx
+++ b/res/ingresos.xlsx
@@ -1,47 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 7/Pensiones/Proyecto/res/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_A7D35FCD8F79A8D366075C52F37BD272FA4D41AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAB775B-05CC-40C6-944E-AAB4F16368C6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Cuotas</t>
-  </si>
-  <si>
-    <t>Cotizaciones</t>
-  </si>
-  <si>
-    <t>Inversiones</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,25 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,88 +350,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cuotas</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizaciones</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Inversiones</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2025</v>
       </c>
       <c r="B2">
-        <v>5401518312.6979256</v>
+        <v>5401518312.697926</v>
       </c>
       <c r="C2">
-        <v>30029.775030527071</v>
+        <v>26140.48303945328</v>
       </c>
       <c r="D2">
-        <v>34186351647.194851</v>
+        <v>34181774262.72007</v>
       </c>
       <c r="E2">
-        <v>39587899989.667809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39583318715.90103</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>5133925820.5011692</v>
+        <v>5133925820.501169</v>
       </c>
       <c r="C3">
-        <v>59420.823593741879</v>
+        <v>51578.08508091854</v>
       </c>
       <c r="D3">
-        <v>37091099558.797668</v>
+        <v>37073416442.23426</v>
       </c>
       <c r="E3">
-        <v>42225084800.122429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42207393840.82051</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2027</v>
       </c>
       <c r="B4">
-        <v>4871359906.3421574</v>
+        <v>4871359906.342157</v>
       </c>
       <c r="C4">
-        <v>81035.667918543098</v>
+        <v>74897.97084247958</v>
       </c>
       <c r="D4">
-        <v>40198076929.430946</v>
+        <v>40158501122.76616</v>
       </c>
       <c r="E4">
-        <v>45069517871.441032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45029935927.07916</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>2028</v>
       </c>
@@ -479,203 +443,203 @@
         <v>4604041361.091217</v>
       </c>
       <c r="C5">
-        <v>108537.4126171111</v>
+        <v>99090.01140307733</v>
       </c>
       <c r="D5">
-        <v>43517672058.494148</v>
+        <v>43445649661.43638</v>
       </c>
       <c r="E5">
-        <v>48121821956.997993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48049790112.539</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>2029</v>
       </c>
       <c r="B6">
-        <v>4325953447.9309006</v>
+        <v>4325953447.930901</v>
       </c>
       <c r="C6">
-        <v>133530.52305479129</v>
+        <v>122252.9402815243</v>
       </c>
       <c r="D6">
-        <v>47058396774.452713</v>
+        <v>46944930697.46436</v>
       </c>
       <c r="E6">
-        <v>51384483752.90667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51271006398.33555</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>2030</v>
       </c>
       <c r="B7">
-        <v>4045134614.6440959</v>
+        <v>4045134614.644096</v>
       </c>
       <c r="C7">
-        <v>158724.7144738537</v>
+        <v>144782.0575860644</v>
       </c>
       <c r="D7">
-        <v>50835693891.949432</v>
+        <v>50674918153.91281</v>
       </c>
       <c r="E7">
-        <v>54880987231.307999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54720197550.61449</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>2031</v>
       </c>
       <c r="B8">
-        <v>3783535018.2707868</v>
+        <v>3783535018.270787</v>
       </c>
       <c r="C8">
-        <v>177159.9474320999</v>
+        <v>165370.2714620122</v>
       </c>
       <c r="D8">
-        <v>54872011449.479057</v>
+        <v>54653665935.55817</v>
       </c>
       <c r="E8">
-        <v>58655723627.697281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58437366324.10042</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>2032</v>
       </c>
       <c r="B9">
-        <v>3531862920.9729352</v>
+        <v>3531862920.972935</v>
       </c>
       <c r="C9">
-        <v>196155.26453919741</v>
+        <v>182401.322970554</v>
       </c>
       <c r="D9">
-        <v>59182282313.27356</v>
+        <v>58899581412.932</v>
       </c>
       <c r="E9">
-        <v>62714341389.511032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62431626735.22791</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>2033</v>
       </c>
       <c r="B10">
-        <v>3284501055.1301942</v>
+        <v>3284501055.130194</v>
       </c>
       <c r="C10">
-        <v>216885.6169868896</v>
+        <v>200235.6787396469</v>
       </c>
       <c r="D10">
-        <v>63786954273.917137</v>
+        <v>63439971036.15549</v>
       </c>
       <c r="E10">
-        <v>67071672214.664322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66724672326.96443</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>2034</v>
       </c>
       <c r="B11">
-        <v>3047190499.9749279</v>
+        <v>3047190499.974928</v>
       </c>
       <c r="C11">
-        <v>236802.5595579347</v>
+        <v>217290.995051817</v>
       </c>
       <c r="D11">
-        <v>68713312825.136093</v>
+        <v>68298379658.35493</v>
       </c>
       <c r="E11">
-        <v>71760740127.670578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71345787449.32492</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>2035</v>
       </c>
       <c r="B12">
-        <v>2819135960.3362331</v>
+        <v>2819135960.336233</v>
       </c>
       <c r="C12">
-        <v>255916.83577454829</v>
+        <v>233660.871430788</v>
       </c>
       <c r="D12">
-        <v>73984663655.603729</v>
+        <v>73496781039.6552</v>
       </c>
       <c r="E12">
-        <v>76804055532.775742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76316150660.86285</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>2036</v>
       </c>
       <c r="B13">
-        <v>2599136698.4604111</v>
+        <v>2599136698.460411</v>
       </c>
       <c r="C13">
-        <v>274509.91523393971</v>
+        <v>249385.191475636</v>
       </c>
       <c r="D13">
-        <v>79628071072.343887</v>
+        <v>79063954393.53749</v>
       </c>
       <c r="E13">
-        <v>82227482280.719528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81663340477.18938</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>2037</v>
       </c>
       <c r="B14">
-        <v>2386437835.2594099</v>
+        <v>2386437835.25941</v>
       </c>
       <c r="C14">
-        <v>293434.19957289059</v>
+        <v>268188.5507657775</v>
       </c>
       <c r="D14">
-        <v>85673319223.695892</v>
+        <v>85029023946.42368</v>
       </c>
       <c r="E14">
-        <v>88060050493.154877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87415729970.23386</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>2038</v>
       </c>
       <c r="B15">
-        <v>2186809725.7360158</v>
+        <v>2186809725.736016</v>
       </c>
       <c r="C15">
-        <v>311179.12750486651</v>
+        <v>282891.1065669247</v>
       </c>
       <c r="D15">
-        <v>92152720738.721359</v>
+        <v>91423991309.43663</v>
       </c>
       <c r="E15">
-        <v>94339841643.584885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93611083926.27921</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>2039</v>
       </c>
       <c r="B16">
-        <v>1997297673.2225931</v>
+        <v>1997297673.222593</v>
       </c>
       <c r="C16">
-        <v>327346.30728353257</v>
+        <v>297269.9514217524</v>
       </c>
       <c r="D16">
-        <v>99102671017.521332</v>
+        <v>98288163601.4395</v>
       </c>
       <c r="E16">
-        <v>101100296037.05119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100285758544.6135</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>2040</v>
       </c>
@@ -683,50 +647,50 @@
         <v>1816033153.846581</v>
       </c>
       <c r="C17">
-        <v>341820.0842688636</v>
+        <v>308838.0169263317</v>
       </c>
       <c r="D17">
-        <v>106557572271.5956</v>
+        <v>105657902469.8066</v>
       </c>
       <c r="E17">
-        <v>108373947245.5264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107474244461.6701</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>2041</v>
       </c>
       <c r="B18">
-        <v>1636124339.9947879</v>
+        <v>1636124339.994788</v>
       </c>
       <c r="C18">
-        <v>354676.29448284948</v>
+        <v>322364.8467732805</v>
       </c>
       <c r="D18">
-        <v>114557034788.3307</v>
+        <v>113570085237.5708</v>
       </c>
       <c r="E18">
-        <v>116193513804.62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115206531942.4124</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>2042</v>
       </c>
       <c r="B19">
-        <v>1474652231.7095859</v>
+        <v>1474652231.709586</v>
       </c>
       <c r="C19">
-        <v>777700.42453572038</v>
+        <v>741924.7584524519</v>
       </c>
       <c r="D19">
-        <v>123150275650.5164</v>
+        <v>122069536260.3336</v>
       </c>
       <c r="E19">
-        <v>124625705582.6505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123544930416.8016</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>2043</v>
       </c>
@@ -734,152 +698,152 @@
         <v>1324175582.468236</v>
       </c>
       <c r="C20">
-        <v>794656.5893662005</v>
+        <v>756422.7472974383</v>
       </c>
       <c r="D20">
-        <v>132385025103.85699</v>
+        <v>131205481128.4639</v>
       </c>
       <c r="E20">
-        <v>133709995342.9146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132530413133.6794</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>2044</v>
       </c>
       <c r="B21">
-        <v>1183373111.8704529</v>
+        <v>1183373111.870453</v>
       </c>
       <c r="C21">
-        <v>1170213.1777407611</v>
+        <v>1129165.673651626</v>
       </c>
       <c r="D21">
-        <v>142306527916.31989</v>
+        <v>141024625949.2447</v>
       </c>
       <c r="E21">
-        <v>143491071241.3681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142209128226.7888</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>2045</v>
       </c>
       <c r="B22">
-        <v>1038979728.0790941</v>
+        <v>1038979728.079094</v>
       </c>
       <c r="C22">
-        <v>1157435.5577978799</v>
+        <v>1114148.340388265</v>
       </c>
       <c r="D22">
-        <v>152965350222.19299</v>
+        <v>151577943521.8902</v>
       </c>
       <c r="E22">
-        <v>154005487385.8299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152618037398.3097</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>2046</v>
       </c>
       <c r="B23">
-        <v>908988977.77440989</v>
+        <v>908988977.7744099</v>
       </c>
       <c r="C23">
-        <v>1901535.170376634</v>
+        <v>1854813.264650115</v>
       </c>
       <c r="D23">
-        <v>164422745440.44241</v>
+        <v>162929095551.5265</v>
       </c>
       <c r="E23">
-        <v>165333635953.38721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163839939342.5656</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>2047</v>
       </c>
       <c r="B24">
-        <v>783461342.81039906</v>
+        <v>783461342.8103991</v>
       </c>
       <c r="C24">
-        <v>1870569.036068778</v>
+        <v>1821847.746039964</v>
       </c>
       <c r="D24">
-        <v>176745571723.4986</v>
+        <v>175145258574.6093</v>
       </c>
       <c r="E24">
-        <v>177530903635.34509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175930541765.1657</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>2048</v>
       </c>
       <c r="B25">
-        <v>665957829.18117106</v>
+        <v>665957829.1811711</v>
       </c>
       <c r="C25">
-        <v>2067962.9167217179</v>
+        <v>2016719.950234379</v>
       </c>
       <c r="D25">
-        <v>190004377046.03851</v>
+        <v>188297300250.9307</v>
       </c>
       <c r="E25">
-        <v>190672402838.13641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188965274800.0621</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
         <v>2049</v>
       </c>
       <c r="B26">
-        <v>559844329.14585292</v>
+        <v>559844329.1458529</v>
       </c>
       <c r="C26">
-        <v>1977869.6187968119</v>
+        <v>1924943.678064752</v>
       </c>
       <c r="D26">
-        <v>204279776191.94571</v>
+        <v>202462502818.023</v>
       </c>
       <c r="E26">
-        <v>204841598390.71039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203024272090.8469</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>2050</v>
       </c>
       <c r="B27">
-        <v>468736726.86317247</v>
+        <v>468736726.8631725</v>
       </c>
       <c r="C27">
-        <v>1868707.169711757</v>
+        <v>1814269.553699323</v>
       </c>
       <c r="D27">
-        <v>219656802666.84619</v>
+        <v>217722487938.1157</v>
       </c>
       <c r="E27">
-        <v>220127408100.87909</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218193038934.5325</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>2051</v>
       </c>
       <c r="B28">
-        <v>386871870.01507068</v>
+        <v>386871870.0150707</v>
       </c>
       <c r="C28">
-        <v>1762935.294314089</v>
+        <v>1707077.094843933</v>
       </c>
       <c r="D28">
-        <v>236223744405.5191</v>
+        <v>234169317618.0557</v>
       </c>
       <c r="E28">
-        <v>236612379210.82849</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234557896565.1656</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>2052</v>
       </c>
@@ -887,50 +851,50 @@
         <v>318083489.4772864</v>
       </c>
       <c r="C29">
-        <v>1662172.5999596389</v>
+        <v>1604943.932073175</v>
       </c>
       <c r="D29">
-        <v>254078847900.15869</v>
+        <v>251902481452.9976</v>
       </c>
       <c r="E29">
-        <v>254398593562.2359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252222169886.407</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>2053</v>
       </c>
       <c r="B30">
-        <v>253208423.25384349</v>
+        <v>253208423.2538435</v>
       </c>
       <c r="C30">
-        <v>1566314.1434333201</v>
+        <v>1507740.573650714</v>
       </c>
       <c r="D30">
-        <v>273329107294.8923</v>
+        <v>271024544120.2097</v>
       </c>
       <c r="E30">
-        <v>273583882032.28961</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271279260284.0372</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>2054</v>
       </c>
       <c r="B31">
-        <v>203784204.50967109</v>
+        <v>203784204.5096711</v>
       </c>
       <c r="C31">
-        <v>1475125.689235759</v>
+        <v>1415237.090545387</v>
       </c>
       <c r="D31">
-        <v>294089135312.16998</v>
+        <v>291646408993.8854</v>
       </c>
       <c r="E31">
-        <v>294294394642.3689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291851608435.4856</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>2055</v>
       </c>
@@ -938,16 +902,16 @@
         <v>160912030.7095848</v>
       </c>
       <c r="C32">
-        <v>1388009.9857653249</v>
+        <v>1326884.444013286</v>
       </c>
       <c r="D32">
-        <v>316479920861.03497</v>
+        <v>313887885383.5294</v>
       </c>
       <c r="E32">
-        <v>316642220901.73029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314050124298.683</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>2056</v>
       </c>
@@ -955,16 +919,16 @@
         <v>123063268.1480501</v>
       </c>
       <c r="C33">
-        <v>1305299.5259766909</v>
+        <v>1242960.339393012</v>
       </c>
       <c r="D33">
-        <v>340632354712.68048</v>
+        <v>337879358474.6562</v>
       </c>
       <c r="E33">
-        <v>340756723280.35461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338003664703.1436</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>2057</v>
       </c>
@@ -972,101 +936,101 @@
         <v>97959530.8006991</v>
       </c>
       <c r="C34">
-        <v>1226032.775089296</v>
+        <v>1162638.801687473</v>
       </c>
       <c r="D34">
-        <v>366687459673.83789</v>
+        <v>363759892547.7119</v>
       </c>
       <c r="E34">
-        <v>366786645237.4137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>363859014717.3143</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>2058</v>
       </c>
       <c r="B35">
-        <v>76333436.901718661</v>
+        <v>76333436.90171866</v>
       </c>
       <c r="C35">
-        <v>1150471.7978252899</v>
+        <v>1086105.493186318</v>
       </c>
       <c r="D35">
-        <v>394795500939.60242</v>
+        <v>391678206133.4807</v>
       </c>
       <c r="E35">
-        <v>394872984848.30188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>391755625675.8755</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>2059</v>
       </c>
       <c r="B36">
-        <v>58282642.148881666</v>
+        <v>58282642.14888167</v>
       </c>
       <c r="C36">
-        <v>1077870.9967475559</v>
+        <v>1012720.210345203</v>
       </c>
       <c r="D36">
-        <v>425116985186.99701</v>
+        <v>421794070159.3589</v>
       </c>
       <c r="E36">
-        <v>425176345700.14258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>421853365521.7182</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>2060</v>
       </c>
       <c r="B37">
-        <v>43545652.392069913</v>
+        <v>43545652.39206991</v>
       </c>
       <c r="C37">
-        <v>1008449.265989498</v>
+        <v>942665.0434998374</v>
       </c>
       <c r="D37">
-        <v>457825211061.2077</v>
+        <v>454279441866.3256</v>
       </c>
       <c r="E37">
-        <v>457869765162.86578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454323930183.7612</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>2061</v>
       </c>
       <c r="B38">
-        <v>31412958.199438911</v>
+        <v>31412958.19943891</v>
       </c>
       <c r="C38">
-        <v>941136.43909119058</v>
+        <v>875002.4180580812</v>
       </c>
       <c r="D38">
-        <v>493107089999.05212</v>
+        <v>489319613291.5154</v>
       </c>
       <c r="E38">
-        <v>493139444093.69061</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489351901252.1329</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>2062</v>
       </c>
       <c r="B39">
-        <v>22390984.696906779</v>
+        <v>22390984.69690678</v>
       </c>
       <c r="C39">
-        <v>876744.47941881139</v>
+        <v>810411.6492951873</v>
       </c>
       <c r="D39">
-        <v>531163079873.53168</v>
+        <v>527113396771.0515</v>
       </c>
       <c r="E39">
-        <v>531186347602.70801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527136598167.3976</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>2063</v>
       </c>
@@ -1074,67 +1038,67 @@
         <v>15524192.53057063</v>
       </c>
       <c r="C40">
-        <v>814620.50709597173</v>
+        <v>748404.1051246278</v>
       </c>
       <c r="D40">
-        <v>572208938326.74512</v>
+        <v>567875133426.0089</v>
       </c>
       <c r="E40">
-        <v>572225277139.78284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>567891406022.6447</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>2064</v>
       </c>
       <c r="B41">
-        <v>9646499.4290847778</v>
+        <v>9646499.429084778</v>
       </c>
       <c r="C41">
-        <v>754578.73299603979</v>
+        <v>688830.5137883452</v>
       </c>
       <c r="D41">
-        <v>616477438124.50952</v>
+        <v>611835575624.675</v>
       </c>
       <c r="E41">
-        <v>616487839202.67163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>611845910954.6179</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>2065</v>
       </c>
       <c r="B42">
-        <v>6124457.0890768915</v>
+        <v>6124457.089076892</v>
       </c>
       <c r="C42">
-        <v>696471.77006677072</v>
+        <v>631576.0838362097</v>
       </c>
       <c r="D42">
-        <v>664219538723.17896</v>
+        <v>659243541583.1205</v>
       </c>
       <c r="E42">
-        <v>664226359652.03809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659250297616.2935</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>2066</v>
       </c>
       <c r="B43">
-        <v>4023917.3065070519</v>
+        <v>4023917.306507052</v>
       </c>
       <c r="C43">
-        <v>640183.6761939365</v>
+        <v>576548.6153370169</v>
       </c>
       <c r="D43">
-        <v>715705092344.9364</v>
+        <v>710367267923.1563</v>
       </c>
       <c r="E43">
-        <v>715709756445.91907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>710371868389.0781</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44">
         <v>2067</v>
       </c>
@@ -1142,50 +1106,50 @@
         <v>1855565.280394064</v>
       </c>
       <c r="C44">
-        <v>585619.15938632865</v>
+        <v>523670.4377462813</v>
       </c>
       <c r="D44">
-        <v>771224741288.85864</v>
+        <v>765495375039.2509</v>
       </c>
       <c r="E44">
-        <v>771227182473.29846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>765497754274.969</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>2068</v>
       </c>
       <c r="B45">
-        <v>519594.54047838121</v>
+        <v>519594.5404783812</v>
       </c>
       <c r="C45">
-        <v>532724.10759919567</v>
+        <v>472898.8633699109</v>
       </c>
       <c r="D45">
-        <v>831092107181.09753</v>
+        <v>824939030973.5914</v>
       </c>
       <c r="E45">
-        <v>831093159499.74561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>824940023466.9952</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>2069</v>
       </c>
       <c r="B46">
-        <v>58846.208120681687</v>
+        <v>58846.20812068169</v>
       </c>
       <c r="C46">
-        <v>481506.65283590119</v>
+        <v>424244.9746271516</v>
       </c>
       <c r="D46">
-        <v>895645252769.32581</v>
+        <v>889033725000.1652</v>
       </c>
       <c r="E46">
-        <v>895645793122.18677</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>889034208091.3479</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>2070</v>
       </c>
@@ -1193,254 +1157,254 @@
         <v>4849.614673085217</v>
       </c>
       <c r="C47">
-        <v>432036.90081359103</v>
+        <v>377768.0933139253</v>
       </c>
       <c r="D47">
-        <v>965248414276.15881</v>
+        <v>958140977708.8739</v>
       </c>
       <c r="E47">
-        <v>965248851162.67432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>958141360326.5819</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>2071</v>
       </c>
       <c r="B48">
-        <v>398.95801070484652</v>
+        <v>398.9580107048465</v>
       </c>
       <c r="C48">
-        <v>384420.97272645839</v>
+        <v>333548.344917502</v>
       </c>
       <c r="D48">
-        <v>1040294097579.41</v>
+        <v>1032650443892.285</v>
       </c>
       <c r="E48">
-        <v>1040294482399.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1032650777839.588</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>2072</v>
       </c>
       <c r="B49">
-        <v>32.762066196887119</v>
+        <v>32.76206619688712</v>
       </c>
       <c r="C49">
-        <v>338797.2915808133</v>
+        <v>291682.6688749463</v>
       </c>
       <c r="D49">
-        <v>1121205412322.98</v>
+        <v>1112982162458.23</v>
       </c>
       <c r="E49">
-        <v>1121205751153.033</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1112982454173.661</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>2073</v>
       </c>
       <c r="B50">
-        <v>2.6854073140445691</v>
+        <v>2.685407314044569</v>
       </c>
       <c r="C50">
-        <v>295349.04417465598</v>
+        <v>252296.644010067</v>
       </c>
       <c r="D50">
-        <v>1208438481901.5649</v>
+        <v>1199588945227.541</v>
       </c>
       <c r="E50">
-        <v>1208438777253.2949</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1199589197526.87</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>2074</v>
       </c>
       <c r="B51">
-        <v>0.21969316944139641</v>
+        <v>0.2196931694413964</v>
       </c>
       <c r="C51">
-        <v>254314.1719494416</v>
+        <v>215553.0212603062</v>
       </c>
       <c r="D51">
-        <v>1302485012519.9839</v>
+        <v>1292958928684.17</v>
       </c>
       <c r="E51">
-        <v>1302485266834.376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1292959144237.411</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52">
         <v>2075</v>
       </c>
       <c r="B52">
-        <v>1.7937560252920811E-2</v>
+        <v>0.01793756025292081</v>
       </c>
       <c r="C52">
-        <v>215962.48072832709</v>
+        <v>181630.1644664897</v>
       </c>
       <c r="D52">
-        <v>1403875058138.2209</v>
+        <v>1393618321000.894</v>
       </c>
       <c r="E52">
-        <v>1403875274100.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1393618502631.076</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53">
         <v>2076</v>
       </c>
       <c r="B53">
-        <v>1.4613951726441649E-3</v>
+        <v>0.001461395172644165</v>
       </c>
       <c r="C53">
-        <v>180555.82219674741</v>
+        <v>150688.0464911576</v>
       </c>
       <c r="D53">
-        <v>1513180006252.5681</v>
+        <v>1502134366803.817</v>
       </c>
       <c r="E53">
-        <v>1513180186808.3921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1502134517491.865</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54">
         <v>2077</v>
       </c>
       <c r="B54">
-        <v>1.187868626676545E-4</v>
+        <v>0.0001187868626676545</v>
       </c>
       <c r="C54">
-        <v>148326.54492759009</v>
+        <v>122852.7679293838</v>
       </c>
       <c r="D54">
-        <v>1631015800779.135</v>
+        <v>1619118546236.929</v>
       </c>
       <c r="E54">
-        <v>1631015949105.6799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1619118669089.697</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55">
         <v>2078</v>
       </c>
       <c r="B55">
-        <v>9.6323620454637774E-6</v>
+        <v>9.632362045463777E-06</v>
       </c>
       <c r="C55">
-        <v>119468.31515460961</v>
+        <v>98212.2710750151</v>
       </c>
       <c r="D55">
-        <v>1758046413755.845</v>
+        <v>1745230022070.892</v>
       </c>
       <c r="E55">
-        <v>1758046533224.1599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1745230120283.163</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56">
         <v>2079</v>
       </c>
       <c r="B56">
-        <v>7.7920656789461903E-7</v>
+        <v>7.79206567894619E-07</v>
       </c>
       <c r="C56">
-        <v>94122.767893923286</v>
+        <v>76808.29213923012</v>
       </c>
       <c r="D56">
-        <v>1894987584801.5249</v>
+        <v>1881179352910.065</v>
       </c>
       <c r="E56">
-        <v>1894987678924.292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1881179429718.357</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57">
         <v>2080</v>
       </c>
       <c r="B57">
-        <v>6.2880309460836984E-8</v>
+        <v>6.288030946083698E-08</v>
       </c>
       <c r="C57">
-        <v>72348.112938071863</v>
+        <v>58613.40565501425</v>
       </c>
       <c r="D57">
-        <v>2042610853025.4341</v>
+        <v>2027732496212.305</v>
       </c>
       <c r="E57">
-        <v>2042610925373.5471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2027732554825.711</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58">
         <v>2081</v>
       </c>
       <c r="B58">
-        <v>5.0613636928793016E-9</v>
+        <v>5.061363692879302E-09</v>
       </c>
       <c r="C58">
-        <v>54094.562144312302</v>
+        <v>43514.54493317395</v>
       </c>
       <c r="D58">
-        <v>2201747908034.4878</v>
+        <v>2185715127006.163</v>
       </c>
       <c r="E58">
-        <v>2201747962129.0498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2185715170520.708</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59">
         <v>2082</v>
       </c>
       <c r="B59">
-        <v>4.0621810966240901E-10</v>
+        <v>4.06218109662409E-10</v>
       </c>
       <c r="C59">
-        <v>39204.678731380212</v>
+        <v>31317.05044888899</v>
       </c>
       <c r="D59">
-        <v>2373295282233.124</v>
+        <v>2356017295305.896</v>
       </c>
       <c r="E59">
-        <v>2373295321437.8032</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2356017326622.946</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>2083</v>
       </c>
       <c r="B60">
-        <v>3.2488535902938327E-11</v>
+        <v>3.248853590293833E-11</v>
       </c>
       <c r="C60">
-        <v>27427.255597158939</v>
+        <v>21758.76450369804</v>
       </c>
       <c r="D60">
-        <v>2558219408094.3638</v>
+        <v>2539598445788.169</v>
       </c>
       <c r="E60">
-        <v>2558219435521.6201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2539598467546.934</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61">
         <v>2084</v>
       </c>
       <c r="B61">
-        <v>2.5878972351988638E-12</v>
+        <v>2.587897235198864E-12</v>
       </c>
       <c r="C61">
-        <v>18434.329048789681</v>
+        <v>14525.53486275394</v>
       </c>
       <c r="D61">
-        <v>2757562068568.9829</v>
+        <v>2737492827494.285</v>
       </c>
       <c r="E61">
-        <v>2757562087003.312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2737492842019.819</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>2085</v>
       </c>
@@ -1448,16 +1412,16 @@
         <v>2.053892294415358E-13</v>
       </c>
       <c r="C62">
-        <v>11838.016140552611</v>
+        <v>9265.750075398941</v>
       </c>
       <c r="D62">
-        <v>2972446272492.438</v>
+        <v>2950815325536.272</v>
       </c>
       <c r="E62">
-        <v>2972446284330.4541</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2950815334802.022</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63">
         <v>2086</v>
       </c>
@@ -1465,16 +1429,16 @@
         <v>1.623642233900889E-14</v>
       </c>
       <c r="C63">
-        <v>7215.666265792971</v>
+        <v>5610.783780547269</v>
       </c>
       <c r="D63">
-        <v>3204082590226.6001</v>
+        <v>3180767749259.939</v>
       </c>
       <c r="E63">
-        <v>3204082597442.2671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3180767754870.723</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64">
         <v>2087</v>
       </c>
@@ -1482,16 +1446,16 @@
         <v>1.277951234073808E-15</v>
       </c>
       <c r="C64">
-        <v>4141.9384009710166</v>
+        <v>3200.046774753686</v>
       </c>
       <c r="D64">
-        <v>3453775983915.2148</v>
+        <v>3428645611224.877</v>
       </c>
       <c r="E64">
-        <v>3453775988057.1528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3428645614424.924</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65">
         <v>2088</v>
       </c>
@@ -1499,33 +1463,33 @@
         <v>1.00103089178152E-16</v>
       </c>
       <c r="C65">
-        <v>2218.521416989784</v>
+        <v>1703.341366320558</v>
       </c>
       <c r="D65">
-        <v>3722933168162.874</v>
+        <v>3695845433236.305</v>
       </c>
       <c r="E65">
-        <v>3722933170381.396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3695845434939.646</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66">
         <v>2089</v>
       </c>
       <c r="B66">
-        <v>7.7996409749598166E-18</v>
+        <v>7.799640974959817E-18</v>
       </c>
       <c r="C66">
-        <v>1097.1899240690391</v>
+        <v>837.3602200095314</v>
       </c>
       <c r="D66">
-        <v>4013070542035.2642</v>
+        <v>3983872620054.958</v>
       </c>
       <c r="E66">
-        <v>4013070543132.4541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3983872620892.318</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>2090</v>
       </c>
@@ -1533,16 +1497,16 @@
         <v>6.041729613336485E-19</v>
       </c>
       <c r="C67">
-        <v>494.80992991258597</v>
+        <v>375.5059872266793</v>
       </c>
       <c r="D67">
-        <v>4325822738165.4941</v>
+        <v>4294349945979.403</v>
       </c>
       <c r="E67">
-        <v>4325822738660.3042</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4294349946354.909</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>2091</v>
       </c>
@@ -1550,67 +1514,67 @@
         <v>4.649805677685942E-20</v>
       </c>
       <c r="C68">
-        <v>200.8907912951702</v>
+        <v>151.6526206552713</v>
       </c>
       <c r="D68">
-        <v>4662951837994.5801</v>
+        <v>4629026702749.127</v>
       </c>
       <c r="E68">
-        <v>4662951838195.4707</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4629026702900.779</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69">
         <v>2092</v>
       </c>
       <c r="B69">
-        <v>3.5528154586361859E-21</v>
+        <v>3.552815458636186E-21</v>
       </c>
       <c r="C69">
-        <v>72.168374041156142</v>
+        <v>54.21761482663052</v>
       </c>
       <c r="D69">
-        <v>5026357304303.8691</v>
+        <v>4989788559683.118</v>
       </c>
       <c r="E69">
-        <v>5026357304376.0371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4989788559737.336</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>2093</v>
       </c>
       <c r="B70">
-        <v>2.6928288360985042E-22</v>
+        <v>2.692828836098504E-22</v>
       </c>
       <c r="C70">
-        <v>22.56303462743703</v>
+        <v>16.88514477097091</v>
       </c>
       <c r="D70">
-        <v>5418086686203.167</v>
+        <v>5378668190943.495</v>
       </c>
       <c r="E70">
-        <v>5418086686225.7305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5378668190960.38</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71">
         <v>2094</v>
       </c>
       <c r="B71">
-        <v>2.0227864037522511E-23</v>
+        <v>2.022786403752251E-23</v>
       </c>
       <c r="C71">
-        <v>5.8278140384176753</v>
+        <v>4.356800728034199</v>
       </c>
       <c r="D71">
-        <v>5840347157076.4297</v>
+        <v>5797856729900.145</v>
       </c>
       <c r="E71">
-        <v>5840347157082.2578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5797856729904.501</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>2095</v>
       </c>
@@ -1618,186 +1582,186 @@
         <v>1.504406132374699E-24</v>
       </c>
       <c r="C72">
-        <v>1.3083881995542941</v>
+        <v>0.975773222780798</v>
       </c>
       <c r="D72">
-        <v>6295517951273.0244</v>
+        <v>6249716115757.19</v>
       </c>
       <c r="E72">
-        <v>6295517951274.333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6249716115758.166</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>2096</v>
       </c>
       <c r="B73">
-        <v>1.1064892602076689E-25</v>
+        <v>1.106489260207669E-25</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>6786163770082.6084</v>
+        <v>6736792402394.555</v>
       </c>
       <c r="E73">
-        <v>6786163770082.6084</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6736792402394.555</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74">
         <v>2097</v>
       </c>
       <c r="B74">
-        <v>8.0369807807583604E-27</v>
+        <v>8.03698078075836E-27</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>7315049232327.5928</v>
+        <v>7261830104247.538</v>
       </c>
       <c r="E74">
-        <v>7315049232327.5928</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7261830104247.538</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75">
         <v>2098</v>
       </c>
       <c r="B75">
-        <v>5.7558351753877736E-28</v>
+        <v>5.755835175387774E-28</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>7885154450867.043</v>
+        <v>7827787659935.456</v>
       </c>
       <c r="E75">
-        <v>7885154450867.043</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7827787659935.456</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76">
         <v>2099</v>
       </c>
       <c r="B76">
-        <v>4.0572643650970972E-29</v>
+        <v>4.057264365097097E-29</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>8499691823020.3262</v>
+        <v>8437854100953.675</v>
       </c>
       <c r="E76">
-        <v>8499691823020.3262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8437854100953.675</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77">
         <v>2100</v>
       </c>
       <c r="B77">
-        <v>2.8094642327445718E-30</v>
+        <v>2.809464232744572E-30</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>9162124129895.3887</v>
+        <v>9095467019672.914</v>
       </c>
       <c r="E77">
-        <v>9162124129895.3887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9095467019672.914</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78">
         <v>2101</v>
       </c>
       <c r="B78">
-        <v>1.9067463010793431E-31</v>
+        <v>1.906746301079343E-31</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>9876184046787.3125</v>
+        <v>9804331938043.797</v>
       </c>
       <c r="E78">
-        <v>9876184046787.3125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9804331938043.797</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79">
         <v>2102</v>
       </c>
       <c r="B79">
-        <v>1.2649675892895661E-32</v>
+        <v>1.264967589289566E-32</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>10645895174551.91</v>
+        <v>10568443186156.28</v>
       </c>
       <c r="E79">
-        <v>10645895174551.91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10568443186156.28</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80">
         <v>2103</v>
       </c>
       <c r="B80">
-        <v>8.1780371926711644E-34</v>
+        <v>8.178037192671164E-34</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>11475594710446.289</v>
+        <v>11392106408321.98</v>
       </c>
       <c r="E80">
-        <v>11475594710446.289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11392106408321.98</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81">
         <v>2104</v>
       </c>
       <c r="B81">
-        <v>5.1348007809116006E-35</v>
+        <v>5.134800780911601E-35</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>12369957886206.93</v>
+        <v>12279962823508.88</v>
       </c>
       <c r="E81">
-        <v>12369957886206.93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12279962823508.88</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82">
         <v>2105</v>
       </c>
       <c r="B82">
-        <v>3.1192332525162359E-36</v>
+        <v>3.119233252516236E-36</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>13334024311112.711</v>
+        <v>13237015376878.08</v>
       </c>
       <c r="E82">
-        <v>13334024311112.711</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13237015376878.08</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83">
         <v>2106</v>
       </c>
@@ -1808,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>14373226368461.77</v>
+        <v>14268656929774.52</v>
       </c>
       <c r="E83">
-        <v>14373226368461.77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14268656929774.52</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84">
         <v>2107</v>
       </c>
@@ -1825,115 +1789,115 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>15493419825429.199</v>
+        <v>15380700646982.05</v>
       </c>
       <c r="E84">
-        <v>15493419825429.199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15380700646982.05</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85">
         <v>2108</v>
       </c>
       <c r="B85">
-        <v>5.4678630950079393E-40</v>
+        <v>5.467863095007939E-40</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>16700916828769.189</v>
+        <v>16579412752448.54</v>
       </c>
       <c r="E85">
-        <v>16700916828769.189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16579412752448.54</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86">
         <v>2109</v>
       </c>
       <c r="B86">
-        <v>2.7652723911140552E-41</v>
+        <v>2.765272391114055E-41</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>18002521472288.012</v>
+        <v>17871547838052.77</v>
       </c>
       <c r="E86">
-        <v>18002521472288.012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17871547838052.77</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87">
         <v>2110</v>
       </c>
       <c r="B87">
-        <v>1.3143603368181349E-42</v>
+        <v>1.314360336818135E-42</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>19405568136505.191</v>
+        <v>19264386924374.34</v>
       </c>
       <c r="E87">
-        <v>19405568136505.191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19264386924374.34</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88">
         <v>2111</v>
       </c>
       <c r="B88">
-        <v>5.8240134011598642E-44</v>
+        <v>5.824013401159864E-44</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>20917962816531.66</v>
+        <v>20765778487927.96</v>
       </c>
       <c r="E88">
-        <v>20917962816531.66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20765778487927.96</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89">
         <v>2112</v>
       </c>
       <c r="B89">
-        <v>2.3839929303060171E-45</v>
+        <v>2.383992930306017E-45</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>22548227671025.922</v>
+        <v>22384182686029.9</v>
       </c>
       <c r="E89">
-        <v>22548227671025.922</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22384182686029.9</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90">
         <v>2113</v>
       </c>
       <c r="B90">
-        <v>8.9253529993914013E-47</v>
+        <v>8.925352999391401E-47</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>24305549043243.609</v>
+        <v>24128719028486.76</v>
       </c>
       <c r="E90">
-        <v>24305549043243.609</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24128719028486.76</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91">
         <v>2114</v>
       </c>
@@ -1944,30 +1908,30 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>26199829224762.98</v>
+        <v>26009217764724.67</v>
       </c>
       <c r="E91">
-        <v>26199829224762.98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26009217764724.67</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92">
         <v>2115</v>
       </c>
       <c r="B92">
-        <v>9.1648789622497938E-50</v>
+        <v>9.164878962249794E-50</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>28241742253556.441</v>
+        <v>28036275275909.19</v>
       </c>
       <c r="E92">
-        <v>28241742253556.441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28036275275909.19</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93">
         <v>2116</v>
       </c>
@@ -1978,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>30442794060808.52</v>
+        <v>30221313784170.52</v>
       </c>
       <c r="E93">
-        <v>30442794060808.52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30221313784170.52</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94">
         <v>2117</v>
       </c>
@@ -1995,30 +1959,30 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>32815387305386</v>
+        <v>32576645715375.42</v>
       </c>
       <c r="E94">
-        <v>32815387305386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32576645715375.42</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95">
         <v>2118</v>
       </c>
       <c r="B95">
-        <v>9.7995868940646376E-55</v>
+        <v>9.799586894064638E-55</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>35372891261284.344</v>
+        <v>35115543078116.19</v>
       </c>
       <c r="E95">
-        <v>35372891261284.344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35115543078116.19</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96">
         <v>2119</v>
       </c>
@@ -2029,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>38129717151847.297</v>
+        <v>37852312249848.69</v>
       </c>
       <c r="E96">
-        <v>38129717151847.297</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37852312249848.69</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97">
         <v>2120</v>
       </c>
@@ -2046,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>41101399355250.227</v>
+        <v>40802374591579.86</v>
       </c>
       <c r="E97">
-        <v>41101399355250.227</v>
+        <v>40802374591579.86</v>
       </c>
     </row>
   </sheetData>
